--- a/Pricing Logic/modules/QD_upload.xlsx
+++ b/Pricing Logic/modules/QD_upload.xlsx
@@ -70,82 +70,82 @@
     <t>SakkarahQD</t>
   </si>
   <si>
-    <t>26/01/2026 17:29</t>
-  </si>
-  <si>
-    <t>27/01/2026 05:19</t>
-  </si>
-  <si>
-    <t>[[130, 1, 4, 0.46], [8672, 2, 6, 0.49], [83, 2, 4, 1.15], [856, 1, 4, 0.79], [1767, 2, 4, 0.58], [1124, 2, 5, 0.73], [5165, 1, 4, 0.46], [1070, 2, 4, 0.98], [1622, 1, 4, 0.41], [823, 1, 4, 0.37], [3889, 1, 4, 2.08], [5005, 1, 4, 0.93], [1766, 2, 4, 0.98], [7036, 1, 4, 0.55], [506, 1, 4, 0.57], [345, 3, 4, 1.33], [2109, 1, 4, 0.74], [346, 1, 4, 1.05], [10149, 3, 13, 0.64], [24257, 1, 4, 0.74], [20498, 1, 4, 1.26], [8674, 2, 4, 1.96], [307, 2, 4, 2.06], [2423, 29, 4, 0.94], [10530, 29, 4, 0.79], [9069, 1, 4, 0.53], [11150, 1, 4, 0.89], [2878, 1, 4, 0.46], [991, 2, 4, 1.74], [336, 15, 4, 0.69], [9828, 3, 4, 1.18], [38, 1, 4, 0.36], [7324, 1, 4, 0.42], [974, 3, 4, 0.6], [2055, 3, 4, 0.85], [590, 15, 4, 0.55], [8945, 1, 4, 0.51], [12150, 1, 4, 0.92], [8690, 1, 4, 1.16], [5434, 1, 4, 0.4], [19687, 1, 4, 0.96], [11489, 1, 4, 1.1], [1519, 3, 10, 0.99], [8898, 3, 4, 0.52], [6540, 29, 4, 0.5], [11089, 1, 4, 0.98], [1163, 3, 4, 0.52], [2608, 1, 4, 0.76], [440, 3, 4, 0.85], [13034, 3, 5, 0.5], [23611, 3, 5, 0.53], [995, 2, 4, 1.39], [11965, 1, 4, 0.39], [21269, 3, 4, 1.49], [4076, 3, 4, 1.34], [1604, 68, 4, 0.6], [13489, 1, 4, 1.12], [473, 1, 4, 0.47], [11954, 1, 4, 0.63], [5736, 2, 4, 0.45], [3610, 24, 4, 0.77], [9608, 1, 4, 0.8], [3575, 29, 4, 0.52], [11952, 1, 4, 0.77], [2934, 1, 4, 0.54], [3059, 3, 4, 0.66], [5813, 3, 4, 0.82], [24261, 1, 4, 0.46], [14039, 3, 4, 1.28], [8897, 3, 4, 0.51], [10147, 1, 4, 1.08], [3910, 7, 5, 1.08], [353, 1, 4, 0.74], [12501, 1, 4, 1.47], [12418, 1, 4, 0.97], [8754, 2, 5, 0.88], [3278, 29, 4, 0.83], [4883, 332, 4, 1.06], [8284, 2, 4, 0.49], [5976, 1, 4, 1.33], [22325, 1, 4, 1.17], [10581, 3, 4, 1.7], [10397, 3, 4, 1.54], [24723, 2, 4, 0.46], [1473, 1, 4, 0.56], [19582, 1, 4, 0.85], [1880, 4, 4, 0.82], [7520, 1, 4, 0.8], [20978, 1, 4, 0.35], [11586, 1, 4, 1.4], [13038, 3, 4, 0.97], [2324, 2, 8, 1.36], [14029, 3, 4, 0.66], [6422, 3, 4, 1.15], [6424, 3, 4, 1.15], [13879, 1, 4, 1.23], [24728, 2, 4, 0.51], [23907, 1, 4, 1.67], [9780, 1, 4, 0.68], [11182, 1, 4, 0.54], [2308, 29, 4, 0.93], [5650, 2, 4, 0.72], [8688, 14, 4, 0.85], [2744, 3, 4, 0.52], [12647, 1, 4, 0.98], [9834, 2, 5, 1.03], [10521, 3, 4, 2.24], [13336, 29, 4, 0.89], [23335, 14, 4, 1.31], [10048, 1, 4, 0.68], [4001, 3, 5, 0.62], [13483, 1, 4, 0.46], [22888, 3, 4, 1.02], [21807, 1, 4, 0.93], [13481, 1, 4, 0.46], [11339, 3, 4, 0.41], [20963, 3, 4, 1.2], [9995, 80, 4, 1.38], [1134, 1, 4, 1.76], [12227, 2, 4, 0.78], [1324, 1, 4, 1.35], [12912, 3, 4, 0.65], [11636, 1, 4, 0.85], [10461, 3, 5, 0.82], [11184, 1, 4, 0.54], [11498, 1, 4, 0.57], [23540, 3, 4, 0.55], [8254, 25, 4, 0.8], [10580, 3, 4, 1.87], [10459, 3, 5, 0.86], [7191, 1, 4, 0.62], [385, 1, 4, 1.58], [12497, 3, 4, 0.49], [21171, 10, 6, 0.5], [1277, 1, 4, 0.36], [10462, 3, 4, 0.57], [10609, 1, 4, 0.48], [12426, 1, 4, 1.45], [2985, 3, 4, 1.13], [12646, 1, 4, 1.09], [12663, 1, 4, 0.94], [3674, 2, 4, 1.57], [20956, 7, 4, 2.06], [13291, 1, 4, 1.02], [10988, 2, 4, 0.9], [2367, 3, 4, 0.51], [5733, 2, 4, 0.65], [13403, 3, 4, 0.42], [22922, 1, 4, 0.48], [21680, 3, 4, 0.94], [12871, 1, 4, 1.09], [24132, 2, 4, 0.41], [9489, 2, 4, 0.59], [13030, 3, 4, 1.83], [22921, 3, 4, 0.38], [11659, 3, 4, 0.62], [382, 1, 4, 1.87], [13180, 1, 4, 0.8], [13164, 1, 4, 1.13], [11678, 1, 4, 1.52], [13116, 1, 4, 0.94], [21476, 7, 4, 0.61], [13462, 1, 4, 1.83], [12723, 1, 4, 0.81], [6036, 23, 4, 0.94], [22908, 3, 5, 1.17], [12609, 1, 4, 0.56], [13178, 1, 4, 0.54], [12496, 3, 4, 0.49], [13117, 1, 4, 0.43], [1515, 1, 4, 0.69], [3945, 23, 9, 0.57], [8672, 2, 310, 1.49], [1767, 2, 37, 1.49], [5165, 1, 51, 1.49], [1622, 1, 111, 1.49], [823, 1, 43, 1.49], [7036, 1, 138, 1.49], [506, 1, 96, 1.49], [2109, 1, 41, 1.49], [24257, 1, 151, 1.49], [9069, 1, 132, 1.49], [2878, 1, 82, 1.49], [38, 1, 121, 1.49], [7324, 1, 65, 1.49], [974, 3, 160, 1.49], [8945, 1, 89, 1.43], [5434, 1, 53, 1.49], [6540, 29, 40, 1.49], [2608, 1, 44, 1.49], [13034, 3, 635, 1.49], [11965, 1, 45, 1.49], [473, 1, 69, 1.49], [5736, 2, 54, 1.49], [3575, 29, 36, 1.49], [2934, 1, 30, 1.49], [24261, 1, 194, 1.49], [353, 1, 122, 1.49], [8284, 2, 514, 1.49], [1473, 1, 55, 1.49]]</t>
-  </si>
-  <si>
-    <t>[[5165, 1, 4, 0.53], [143, 2, 4, 0.35], [7004, 1, 4, 1.3], [2424, 29, 4, 0.36], [146, 2, 4, 0.67], [83, 2, 4, 1.11], [8650, 2, 4, 1.17], [24722, 2, 4, 1.37], [94, 4, 4, 0.41], [1492, 1, 4, 1.07], [950, 1, 4, 0.85], [10721, 29, 4, 1.08], [7573, 1, 5, 0.56], [361, 2, 4, 0.53], [34, 1, 4, 1.16], [9081, 3, 7, 0.8], [66, 1, 4, 0.64], [3896, 29, 4, 1.65], [33, 1, 4, 0.4], [24725, 2, 4, 0.95], [4232, 29, 4, 1.01], [35, 1, 4, 0.51], [346, 1, 4, 1.52], [7084, 3, 4, 0.8], [12304, 1, 4, 0.68], [12526, 2, 4, 0.37], [4043, 29, 4, 0.69], [215, 4, 4, 1.44], [20498, 1, 4, 0.5], [13280, 1, 4, 0.81], [11426, 29, 4, 0.46], [470, 1, 4, 0.65], [1413, 15, 4, 0.55], [2859, 15, 4, 1.28], [11844, 2, 4, 0.37], [11425, 29, 4, 0.46], [24724, 2, 4, 1.37], [418, 2, 4, 0.48], [13260, 29, 4, 0.94], [1091, 1, 4, 0.43], [11495, 1, 4, 0.35], [7706, 2, 4, 1.08], [12661, 1, 4, 1.28], [3047, 3, 4, 0.78], [21059, 1, 4, 1.19], [11093, 1, 4, 0.48], [1277, 1, 4, 1.06], [21809, 1, 4, 0.8], [2934, 1, 4, 0.8], [8907, 29, 4, 1.13], [3898, 3, 4, 0.39], [12417, 1, 4, 0.51], [8897, 3, 4, 0.96], [12647, 1, 4, 1.0], [11633, 1, 4, 0.54], [524, 1, 4, 1.02], [21697, 3, 4, 0.74], [9069, 1, 4, 0.85], [25, 1, 4, 1.79], [13278, 1, 4, 0.54], [3337, 1, 4, 1.17], [1324, 1, 4, 1.79], [2406, 29, 4, 1.53], [12373, 1, 4, 0.53], [13035, 3, 4, 1.27], [3338, 1, 4, 1.73], [5729, 2, 4, 0.49], [9797, 3, 7, 0.48], [1515, 1, 4, 0.89], [10581, 3, 4, 1.86], [22287, 1, 4, 0.38], [8023, 1, 4, 1.41], [8121, 3, 4, 0.36], [21700, 3, 4, 0.46], [4968, 1, 5, 0.57], [12887, 1, 4, 0.62], [5730, 2, 4, 1.6], [10580, 3, 4, 1.77], [13279, 1, 4, 1.68], [9182, 1, 4, 0.55], [11895, 1, 4, 1.05], [10630, 2, 4, 1.28], [23563, 1, 4, 0.65], [12883, 1, 4, 0.89], [21701, 3, 4, 0.43], [23441, 1, 4, 0.83], [2481, 1, 4, 0.69], [5648, 2, 4, 0.36], [13291, 1, 4, 3.0], [10632, 2, 4, 1.35], [358, 1, 4, 0.86], [23445, 1, 4, 1.44], [23439, 1, 4, 0.56], [12889, 1, 4, 0.63], [23038, 10, 5, 0.93], [12220, 3, 5, 1.68], [22921, 3, 4, 1.54], [5652, 2, 4, 0.65], [4720, 3, 4, 0.91], [12598, 2, 4, 1.2], [21679, 3, 4, 0.37], [1294, 1, 4, 1.35], [8051, 2, 4, 1.32], [12891, 1, 4, 0.93], [12335, 2, 4, 0.7], [2821, 3, 6, 0.76], [22922, 3, 4, 1.54], [23438, 1, 4, 0.98], [8156, 2, 4, 0.56], [12992, 3, 7, 0.66], [13326, 3, 4, 1.49], [12857, 1, 4, 0.89], [23443, 1, 4, 2.09], [10639, 2, 4, 1.35], [23437, 1, 4, 1.52], [24134, 2, 4, 1.26], [10635, 2, 4, 0.42], [1683, 1, 4, 0.91], [10638, 2, 4, 1.35], [12868, 1, 4, 0.69], [12851, 1, 4, 0.67], [12860, 1, 4, 0.67], [12861, 1, 4, 0.67], [12869, 1, 4, 0.89], [12863, 1, 4, 0.59], [5165, 1, 53, 1.69], [143, 2, 172, 1.69], [2424, 29, 37, 1.69], [146, 2, 172, 1.69], [94, 4, 133, 1.69], [7573, 1, 397, 1.69], [361, 2, 169, 1.69], [66, 1, 41, 1.69], [33, 1, 125, 1.69], [35, 1, 125, 1.69], [7084, 3, 142, 1.69], [12304, 1, 125, 1.69], [12526, 2, 296, 1.69], [20498, 1, 106, 1.69], [13280, 1, 349, 1.69], [11426, 29, 43, 1.69], [1413, 15, 111, 1.69], [11844, 2, 298, 1.69], [11425, 29, 43, 1.69], [418, 2, 154, 1.69], [1091, 1, 50, 1.69], [11495, 1, 54, 1.69], [3047, 3, 296, 1.69], [11093, 1, 85, 1.69], [21809, 1, 103, 1.69], [2934, 1, 30, 1.69], [3898, 3, 39, 1.69], [12417, 1, 165, 1.69], [11633, 1, 104, 1.69], [21697, 3, 194, 1.69], [9069, 1, 135, 1.69], [13278, 1, 349, 1.69], [5729, 2, 55, 1.69], [22287, 1, 133, 1.69], [8121, 3, 327, 1.69], [21700, 3, 322, 1.69], [4968, 1, 92, 1.69], [9182, 1, 171, 1.69], [21701, 3, 322, 1.69], [23441, 1, 368, 1.69], [2481, 1, 74, 1.69], [5648, 2, 40, 1.58], [12889, 1, 368, 1.69], [5652, 2, 27, 1.43], [21679, 3, 288, 1.69], [12335, 2, 331, 1.69], [2821, 3, 1429, 1.69], [8156, 2, 31, 1.69], [10635, 2, 234, 1.69], [12868, 1, 634, 1.69], [12851, 1, 634, 1.69], [12860, 1, 634, 1.69], [12861, 1, 634, 1.69], [12863, 1, 634, 1.69]]</t>
-  </si>
-  <si>
-    <t>[[8938, 2, 4, 0.44], [362, 2, 4, 0.48], [615, 2, 4, 1.77], [24257, 1, 4, 0.58], [3982, 3, 10, 1.05], [11150, 1, 4, 0.44], [24260, 1, 4, 0.66], [3391, 1, 4, 1.17], [1413, 15, 4, 0.9], [1504, 2, 4, 0.48], [20256, 2, 4, 0.83], [19970, 29, 4, 0.72], [8649, 2, 4, 2.17], [345, 3, 4, 0.86], [2859, 15, 4, 0.96], [5434, 1, 4, 0.59], [1490, 1, 4, 0.8], [3495, 3, 13, 1.64], [590, 15, 4, 0.46], [2193, 1, 8, 0.68], [3981, 3, 13, 1.04], [9827, 3, 4, 1.05], [20486, 1, 4, 0.42], [11306, 2, 4, 1.11], [2805, 137, 4, 1.09], [9945, 1, 7, 1.07], [4076, 3, 4, 0.59], [3049, 3, 4, 1.59], [10388, 2, 4, 0.87], [9186, 29, 4, 0.51], [9829, 3, 4, 1.1], [36, 1, 4, 0.77], [5005, 1, 4, 0.81], [448, 1, 4, 0.61], [27, 1, 4, 1.62], [2878, 1, 4, 0.43], [23234, 29, 4, 1.02], [40, 1, 4, 1.81], [26, 1, 4, 0.97], [12235, 3, 4, 1.11], [12058, 3, 4, 0.46], [10596, 3, 4, 0.8], [20680, 1, 4, 0.91], [11610, 3, 4, 0.57], [11813, 1, 4, 0.67], [12418, 1, 4, 1.39], [3053, 3, 4, 1.19], [20978, 1, 4, 1.72], [1667, 3, 4, 1.29], [5513, 2, 4, 0.44], [3910, 7, 5, 0.6], [1728, 1, 4, 1.01], [3079, 3, 4, 1.14], [10279, 3, 4, 0.46], [13282, 1, 4, 0.65], [10595, 3, 4, 0.63], [6967, 3, 4, 0.98], [13287, 1, 4, 0.66], [4175, 3, 8, 0.99], [3071, 3, 4, 1.01], [186, 3, 9, 0.63], [24729, 2, 4, 1.08], [13291, 1, 4, 0.57], [11184, 1, 4, 1.23], [3585, 3, 4, 0.42], [10599, 3, 4, 0.77], [2365, 3, 4, 0.7], [3583, 3, 4, 0.72], [3610, 24, 4, 0.84], [12883, 1, 4, 0.4], [12430, 1, 4, 1.26], [23491, 3, 4, 0.69], [12887, 1, 4, 0.4], [10598, 3, 4, 0.99], [3080, 3, 4, 1.12], [12723, 1, 4, 0.43], [691, 3, 4, 0.42], [13279, 1, 4, 0.63], [11182, 1, 4, 1.37], [23493, 3, 4, 0.69], [10635, 2, 4, 1.15], [12621, 1, 4, 2.72], [13289, 1, 4, 0.67], [12724, 1, 4, 0.35], [14029, 3, 4, 1.15], [12882, 1, 4, 0.47], [2368, 3, 4, 0.77], [3988, 4, 4, 0.97], [23492, 3, 4, 0.69], [10278, 3, 4, 1.47], [21010, 2, 4, 0.74], [11868, 3, 4, 0.74], [3582, 3, 4, 1.41], [7358, 3, 4, 0.8], [3581, 3, 4, 1.44], [21003, 2, 4, 0.74], [13937, 1, 4, 0.37], [3584, 3, 4, 0.61], [23490, 3, 4, 0.89], [11848, 1, 4, 0.88], [1880, 4, 4, 0.38], [12563, 1, 4, 0.82], [8938, 2, 193, 1.6], [362, 2, 160, 1.6], [24257, 1, 157, 1.6], [11150, 1, 50, 1.6], [24260, 1, 157, 1.6], [1504, 2, 188, 1.6], [19970, 29, 37, 1.6], [5434, 1, 55, 1.6], [1490, 1, 57, 1.6], [590, 15, 110, 1.6], [2193, 1, 123, 1.6], [20486, 1, 113, 1.6], [4076, 3, 226, 1.6], [36, 1, 129, 1.6], [5005, 1, 151, 1.6], [448, 1, 54, 1.6], [12058, 3, 324, 1.6], [10596, 3, 149, 1.6], [11610, 3, 171, 1.6], [5513, 2, 90, 1.6], [3910, 7, 261, 1.6], [10279, 3, 314, 1.6], [10595, 3, 149, 1.6], [186, 3, 753, 1.6], [13291, 1, 362, 1.6], [3585, 3, 218, 1.6], [10599, 3, 149, 1.6], [2365, 3, 337, 1.6], [12883, 1, 375, 1.6], [23491, 3, 239, 1.6], [12887, 1, 375, 1.6], [12723, 1, 346, 1.6], [691, 3, 288, 1.6], [23493, 3, 239, 1.6], [12724, 1, 346, 1.6], [12882, 1, 375, 1.6], [2368, 3, 391, 1.6], [23492, 3, 239, 1.6], [21010, 2, 332, 1.6], [7358, 3, 291, 1.6], [21003, 2, 332, 1.6], [13937, 1, 167, 1.6], [3584, 3, 223, 1.6], [1880, 4, 248, 1.6], [12563, 1, 161, 1.6]]</t>
-  </si>
-  <si>
-    <t>[[151, 1, 4, 0.74], [130, 1, 4, 0.81], [59, 1, 4, 0.93], [6097, 29, 4, 0.49], [305, 2, 4, 0.52], [146, 2, 4, 1.13], [201, 1, 4, 1.87], [143, 2, 4, 0.55], [5005, 1, 4, 0.73], [144, 2, 4, 0.5], [345, 1, 4, 1.6], [413, 1, 4, 0.44], [145, 2, 4, 1.16], [1070, 2, 4, 0.55], [346, 1, 4, 1.05], [21793, 1, 4, 0.74], [9760, 29, 4, 1.04], [5513, 2, 4, 0.6], [418, 2, 4, 0.74], [23, 1, 4, 1.05], [168, 3, 4, 0.62], [214, 3, 9, 1.12], [6540, 29, 5, 1.2], [9691, 1, 4, 0.82], [1409, 15, 4, 0.84], [9613, 1, 4, 0.75], [974, 3, 4, 0.85], [2726, 3, 4, 0.53], [8945, 1, 4, 1.01], [2322, 2, 4, 0.64], [10780, 1, 5, 1.34], [11965, 1, 4, 0.35], [11767, 1, 4, 1.39], [149, 2, 4, 0.35], [5729, 2, 4, 0.94], [24258, 1, 4, 0.56], [380, 2, 4, 1.28], [1163, 3, 4, 0.6], [11711, 3, 4, 0.79], [3049, 3, 4, 0.7], [5831, 3, 4, 1.04], [12059, 3, 4, 0.71], [17, 1, 4, 0.62], [2105, 3, 7, 0.76], [9085, 29, 4, 0.98], [3048, 3, 4, 0.44], [8635, 3, 4, 0.43], [1234, 1, 4, 0.66], [8688, 14, 5, 1.0], [23335, 1, 4, 0.41], [3898, 3, 4, 0.82], [13034, 3, 5, 0.87], [8557, 3, 4, 0.85], [995, 2, 4, 0.59], [2729, 3, 4, 1.07], [11710, 1, 4, 0.95], [23336, 3, 4, 3.08], [332, 2, 4, 0.36], [9997, 80, 4, 1.1], [13033, 3, 5, 0.87], [4927, 12, 4, 0.91], [9778, 1, 4, 0.68], [10397, 3, 4, 1.18], [2736, 3, 4, 0.96], [3908, 7, 5, 0.63], [20961, 1, 4, 0.93], [1705, 2, 4, 0.62], [2326, 2, 4, 0.72], [12418, 1, 4, 0.91], [13198, 29, 4, 1.2], [19583, 1, 4, 0.62], [10398, 2, 4, 0.86], [20220, 3, 4, 0.39], [21683, 1, 4, 0.59], [9186, 29, 4, 1.28], [19924, 2, 4, 1.04], [23489, 3, 4, 0.7], [8058, 1, 4, 1.32], [1407, 2, 4, 0.83], [14038, 3, 4, 1.71], [11586, 1, 5, 1.23], [10936, 2, 4, 1.14], [6805, 1, 4, 1.46], [22330, 3, 4, 1.77], [22920, 1, 4, 0.86], [19582, 1, 4, 0.8], [2732, 3, 4, 1.37], [3906, 14, 4, 0.56], [11178, 1, 4, 1.03], [3053, 3, 4, 3.02], [5084, 2, 4, 0.35], [9781, 1, 4, 0.82], [11159, 1, 7, 0.81], [11920, 1, 4, 0.45], [21781, 2, 4, 0.56], [6931, 2, 4, 1.04], [958, 2, 4, 0.8], [3910, 7, 5, 0.65], [23337, 3, 4, 0.7], [8085, 1, 4, 0.38], [3977, 3, 4, 0.84], [5650, 2, 4, 0.61], [14015, 3, 5, 1.0], [2013, 2, 4, 0.57], [2738, 3, 4, 0.57], [5648, 2, 4, 1.07], [13336, 29, 4, 0.4], [7363, 2, 4, 0.81], [2287, 29, 4, 0.61], [9780, 1, 4, 0.82], [11339, 3, 4, 0.72], [2194, 1, 5, 0.62], [5722, 2, 4, 1.4], [23539, 3, 4, 0.91], [10521, 3, 4, 0.5], [13278, 1, 4, 1.42], [11467, 1, 4, 0.76], [3673, 2, 4, 0.86], [12430, 1, 4, 0.82], [10278, 3, 4, 0.37], [10994, 2, 4, 0.89], [11426, 29, 4, 0.7], [10507, 2, 4, 0.8], [21701, 3, 4, 1.06], [5642, 3, 4, 1.06], [10279, 3, 4, 1.01], [13289, 1, 4, 0.84], [13284, 1, 4, 1.35], [13183, 1, 4, 0.67], [10594, 3, 4, 0.54], [10446, 1, 4, 0.5], [13171, 1, 4, 0.54], [12723, 1, 4, 0.57], [13282, 1, 4, 1.19], [20196, 2, 4, 0.6], [13279, 1, 4, 1.57], [13886, 1, 4, 1.02], [13287, 1, 4, 0.55], [2946, 3, 4, 0.92], [6036, 23, 4, 0.6], [22921, 1, 4, 2.04], [4720, 3, 4, 0.91], [13291, 1, 4, 0.59], [10596, 3, 4, 1.08], [3057, 3, 4, 0.38], [13285, 1, 4, 1.19], [10595, 3, 4, 0.86], [3024, 3, 4, 0.94], [11425, 29, 4, 0.95], [20647, 2, 4, 0.35], [10465, 2, 5, 0.42], [13167, 1, 4, 0.39], [23562, 1, 4, 1.12], [13879, 1, 4, 1.36], [12883, 1, 4, 1.12], [13168, 1, 4, 1.1], [13884, 1, 4, 1.02], [23441, 1, 4, 1.12], [12882, 1, 4, 0.79], [964, 15, 4, 0.91], [13199, 23, 4, 1.75], [21010, 2, 4, 0.99], [21480, 7, 4, 2.1], [21012, 2, 5, 1.95], [7629, 1, 4, 0.48], [3338, 1, 4, 0.76], [3986, 4, 4, 1.0], [13290, 1, 4, 0.59], [21691, 3, 4, 0.91], [5517, 1, 4, 0.48], [2731, 3, 4, 1.07], [12860, 1, 4, 0.37], [13108, 3, 5, 0.98], [11721, 3, 5, 0.36], [12861, 1, 4, 2.04], [289, 3, 4, 0.5], [9083, 3, 5, 2.44], [22954, 3, 4, 0.74], [6097, 29, 38, 1.36], [305, 2, 167, 1.36], [144, 2, 173, 1.36], [413, 1, 95, 1.36], [5513, 2, 87, 1.36], [168, 3, 445, 1.36], [2322, 2, 118, 1.36], [11965, 1, 48, 1.36], [24258, 1, 156, 1.36], [3049, 3, 150, 1.36], [17, 1, 53, 1.36], [23335, 1, 49, 1.36], [332, 2, 80, 1.36], [9778, 1, 50, 1.36], [1705, 2, 39, 1.36], [19583, 1, 165, 1.36], [20220, 3, 69, 1.36], [3906, 14, 196, 1.36], [5084, 2, 59, 1.36], [11920, 1, 163, 1.36], [21781, 2, 114, 1.36], [23337, 3, 229, 1.36]]</t>
-  </si>
-  <si>
-    <t>[[94, 4, 4, 0.41], [5165, 1, 4, 0.53], [1492, 1, 4, 1.07], [9, 1, 4, 0.69], [24257, 1, 4, 0.41], [144, 2, 4, 0.36], [2436, 4, 4, 1.2], [146, 2, 4, 0.67], [23380, 29, 4, 1.01], [346, 1, 4, 1.52], [5435, 1, 4, 0.6], [12526, 2, 4, 0.37], [6158, 2, 4, 0.64], [8356, 1, 4, 0.91], [24258, 1, 4, 0.68], [10721, 29, 4, 1.08], [417, 2, 4, 0.41], [2805, 137, 4, 0.64], [12662, 1, 4, 1.08], [3896, 29, 4, 1.65], [5005, 1, 4, 1.74], [11426, 29, 4, 0.46], [8677, 3, 4, 0.89], [2055, 3, 4, 1.23], [70, 1, 4, 0.77], [11495, 1, 4, 0.35], [2336, 3, 5, 0.5], [448, 1, 4, 0.43], [19969, 29, 4, 0.52], [9827, 3, 4, 0.37], [2422, 80, 4, 0.63], [19924, 2, 4, 0.97], [2859, 15, 4, 1.28], [3334, 5, 4, 1.64], [21683, 1, 4, 1.54], [24256, 1, 4, 0.64], [19970, 29, 4, 0.64], [11585, 29, 4, 0.58], [3979, 3, 8, 1.4], [2528, 29, 4, 1.63], [8058, 1, 4, 1.25], [3892, 1, 4, 0.7], [8085, 1, 5, 0.69], [10531, 14, 5, 1.03], [11726, 29, 4, 1.21], [24127, 3, 4, 1.27], [3894, 1, 4, 3.98], [333, 2, 4, 0.73], [10581, 3, 4, 1.86], [5579, 2, 4, 0.67], [10825, 21, 8, 1.41], [415, 1, 4, 0.59], [23039, 1, 4, 0.57], [3475, 2, 4, 1.0], [22287, 1, 4, 0.38], [24126, 3, 4, 0.9], [11503, 1, 5, 0.84], [20682, 1, 4, 1.32], [13879, 1, 4, 1.23], [12373, 1, 4, 0.53], [9493, 1, 4, 0.86], [13885, 1, 4, 2.61], [10580, 3, 4, 1.77], [12352, 1, 4, 1.38], [20680, 1, 4, 1.32], [14017, 3, 4, 0.35], [7629, 1, 4, 0.44], [12598, 2, 4, 1.2], [13293, 3, 4, 0.78], [12897, 1, 4, 1.09], [11706, 3, 4, 0.71], [13880, 1, 4, 1.7], [13886, 1, 4, 0.51], [12379, 1, 4, 0.91], [26, 1, 4, 1.2], [8688, 14, 4, 0.63], [23436, 1, 4, 1.89], [13324, 3, 4, 1.06], [24132, 2, 4, 0.99], [24629, 1, 4, 0.62], [13884, 1, 4, 3.06], [10630, 2, 4, 1.28], [13488, 1, 4, 1.46], [11611, 2, 4, 0.48], [3902, 14, 5, 0.77], [10175, 1, 4, 0.82], [12497, 3, 4, 0.67], [1602, 68, 4, 1.23], [24134, 2, 4, 1.26], [563, 2, 4, 0.6], [12055, 2, 4, 1.59], [12496, 3, 4, 1.13], [2099, 2, 4, 2.25], [25288, 3, 7, 0.84], [21480, 7, 4, 1.09], [688, 3, 4, 0.9], [12952, 21, 4, 0.94], [2821, 3, 6, 0.76], [11857, 1, 4, 1.19], [94, 4, 133, 1.69], [5165, 1, 53, 1.69], [9, 1, 37, 1.69], [24257, 1, 154, 1.69], [144, 2, 172, 1.69], [146, 2, 172, 1.69], [5435, 1, 52, 1.69], [12526, 2, 296, 1.69], [6158, 2, 287, 1.69], [24258, 1, 154, 1.69], [417, 2, 169, 1.69], [2805, 137, 204, 1.69], [11426, 29, 43, 1.69], [70, 1, 65, 1.69], [11495, 1, 54, 1.69], [2336, 3, 640, 1.69], [448, 1, 52, 1.69], [19969, 29, 30, 1.69], [9827, 3, 99, 1.69], [2422, 80, 203, 1.69], [24256, 1, 154, 1.69], [19970, 29, 35, 1.69], [11585, 29, 185, 1.69], [3892, 1, 125, 1.69], [8085, 1, 98, 1.69], [333, 2, 31, 1.69], [5579, 2, 93, 1.69], [415, 1, 95, 1.69], [22287, 1, 133, 1.69], [11503, 1, 135, 1.69], [9493, 1, 225, 1.69], [7629, 1, 89, 1.69], [13293, 3, 321, 1.69], [11706, 3, 653, 1.69], [8688, 14, 388, 1.69], [24629, 1, 331, 1.69], [11611, 2, 154, 1.69], [3902, 14, 157, 1.69], [10175, 1, 52, 1.69], [12497, 3, 619, 1.69], [563, 2, 78, 1.69], [2821, 3, 1429, 1.69]]</t>
-  </si>
-  <si>
-    <t>[[248, 1, 4, 0.79], [1429, 2, 4, 0.49], [856, 1, 4, 0.54], [33, 1, 4, 0.49], [2879, 1, 4, 0.82], [3840, 1, 4, 1.39], [336, 15, 4, 0.6], [3430, 15, 4, 0.76], [19968, 29, 4, 0.52], [3896, 29, 4, 0.61], [5208, 3, 4, 0.69], [19970, 29, 4, 0.72], [2859, 15, 4, 0.96], [8356, 1, 4, 0.59], [7704, 2, 4, 1.06], [5005, 1, 4, 0.81], [5434, 1, 4, 0.59], [11961, 1, 4, 0.65], [74, 1, 4, 0.9], [1622, 1, 4, 0.75], [2608, 1, 4, 0.67], [3994, 1, 4, 0.68], [2161, 1, 4, 0.58], [3475, 2, 4, 0.59], [2774, 2, 4, 0.36], [1091, 1, 4, 0.77], [2935, 1, 4, 0.88], [2776, 2, 4, 0.41], [9209, 29, 4, 0.66], [1432, 2, 4, 0.55], [1243, 2, 4, 0.69], [2537, 1, 4, 1.33], [8926, 1, 4, 0.39], [11894, 2, 4, 0.97], [3079, 3, 4, 1.14], [9786, 1, 4, 0.64], [4030, 29, 4, 0.84], [11091, 1, 4, 0.46], [7707, 2, 4, 1.23], [24126, 3, 4, 1.02], [7706, 2, 4, 0.77], [20978, 1, 4, 1.72], [8896, 1, 4, 1.09], [999, 2, 4, 0.54], [4076, 3, 4, 0.59], [10181, 26, 5, 1.28], [380, 2, 4, 1.17], [11965, 1, 4, 0.53], [19965, 29, 4, 0.48], [995, 2, 4, 1.18], [1407, 2, 4, 0.55], [24256, 1, 4, 0.58], [9068, 1, 4, 0.78], [563, 2, 4, 0.75], [473, 1, 4, 0.67], [12059, 3, 4, 0.75], [1744, 1, 4, 0.42], [5646, 2, 4, 0.38], [332, 2, 4, 0.75], [3071, 3, 4, 1.01], [2727, 3, 4, 2.81], [9208, 29, 4, 0.54], [12663, 1, 4, 1.02], [3477, 2, 4, 1.07], [19581, 1, 4, 0.97], [506, 1, 4, 0.55], [23234, 29, 4, 1.02], [22318, 3, 4, 1.36], [23339, 3, 4, 0.74], [12647, 1, 4, 1.03], [12373, 1, 4, 1.18], [11611, 2, 4, 0.48], [5342, 1, 4, 0.7], [8360, 1, 4, 0.37], [3583, 3, 4, 0.72], [2728, 3, 4, 1.18], [11896, 2, 4, 0.91], [11092, 1, 4, 0.43], [11093, 1, 4, 0.41], [10825, 21, 8, 0.92], [3073, 3, 4, 0.78], [11184, 1, 4, 1.23], [7358, 3, 4, 0.8], [12887, 1, 4, 0.4], [9829, 3, 4, 1.1], [3024, 3, 4, 0.71], [12884, 1, 4, 1.4], [2194, 1, 4, 0.69], [13293, 3, 4, 0.56], [12897, 1, 4, 0.84], [1668, 1, 4, 0.7], [688, 3, 4, 1.15], [1742, 1, 4, 0.35], [3989, 3, 8, 0.93], [12883, 1, 4, 0.4], [524, 1, 4, 0.46], [23562, 1, 4, 0.92], [3581, 3, 4, 1.44], [3582, 3, 4, 1.41], [9207, 29, 4, 0.99], [13168, 1, 4, 0.58], [10838, 3, 4, 0.86], [12857, 1, 4, 0.87], [13857, 1, 8, 0.63], [21481, 7, 4, 1.66], [10580, 3, 4, 1.77], [23441, 1, 4, 1.73], [23563, 1, 4, 1.39], [12868, 1, 4, 1.31], [11899, 2, 4, 1.34], [12848, 1, 4, 0.48], [10466, 2, 4, 0.65], [11641, 1, 4, 0.62], [23445, 1, 4, 0.89], [9083, 3, 4, 0.41], [12029, 2, 4, 1.25], [1429, 2, 165, 1.6], [856, 1, 40, 1.6], [33, 1, 129, 1.6], [336, 15, 124, 1.6], [19968, 29, 37, 1.6], [3896, 29, 36, 1.6], [19970, 29, 37, 1.6], [5005, 1, 151, 1.6], [5434, 1, 55, 1.6], [11961, 1, 62, 1.6], [1622, 1, 121, 1.6], [2608, 1, 47, 1.6], [2161, 1, 51, 1.6], [3475, 2, 67, 1.6], [1091, 1, 53, 1.6], [2776, 2, 170, 1.6], [9209, 29, 37, 1.6], [1432, 2, 35, 1.6], [1243, 2, 110, 1.6], [8926, 1, 70, 1.6], [9786, 1, 82, 1.6], [11091, 1, 90, 1.6], [7706, 2, 198, 1.6], [999, 2, 125, 1.6], [4076, 3, 226, 1.6], [11965, 1, 48, 1.6], [19965, 29, 43, 1.6], [1407, 2, 35, 1.6], [24256, 1, 157, 1.6], [9068, 1, 133, 1.6], [12059, 3, 324, 1.6], [1744, 1, 192, 1.6], [9208, 29, 37, 1.6], [506, 1, 102, 1.6], [23339, 3, 209, 1.6], [11611, 2, 160, 1.6], [5342, 1, 54, 1.6], [8360, 1, 117, 1.6], [11092, 1, 90, 1.6], [11093, 1, 90, 1.6], [7358, 3, 291, 1.6], [12887, 1, 375, 1.6], [2194, 1, 123, 1.6], [1668, 1, 110, 1.6], [1742, 1, 192, 1.6], [12883, 1, 375, 1.6], [13168, 1, 240, 1.6], [13857, 1, 241, 1.6], [10466, 2, 85, 1.6], [11641, 1, 95, 1.6], [9083, 3, 547, 1.6]]</t>
-  </si>
-  <si>
-    <t>[[990, 2, 4, 1.74], [13250, 29, 4, 1.04], [12925, 1, 4, 0.41], [8089, 1, 22, 1.25], [7704, 2, 4, 0.74], [94, 4, 4, 0.72], [952, 4, 4, 1.71], [346, 1, 4, 2.72], [6097, 29, 4, 0.64], [1492, 1, 4, 0.92], [7887, 4, 4, 0.37], [345, 3, 4, 0.96], [9784, 1, 4, 0.81], [2421, 29, 4, 0.72], [11402, 1, 4, 0.75], [7708, 2, 4, 0.54], [5729, 2, 4, 1.17], [2050, 3, 5, 0.42], [66, 1, 4, 0.84], [9358, 1, 4, 0.85], [6629, 3, 4, 1.04], [409, 1, 4, 0.51], [9085, 29, 4, 0.53], [21269, 1, 4, 1.59], [3495, 3, 11, 0.79], [972, 1, 4, 0.49], [5736, 2, 4, 1.17], [5734, 2, 4, 1.54], [3016, 68, 4, 1.07], [448, 1, 4, 0.6], [5946, 1, 4, 1.15], [24258, 1, 4, 0.48], [11585, 29, 4, 0.94], [5208, 3, 5, 0.63], [12353, 1, 4, 2.05], [3980, 4, 4, 0.86], [3257, 4, 4, 1.07], [3575, 29, 4, 0.73], [13266, 29, 4, 0.81], [5209, 3, 5, 0.74], [11767, 1, 4, 1.03], [3337, 1, 4, 0.46], [9960, 3, 4, 0.47], [11678, 1, 4, 0.8], [1548, 1, 4, 1.06], [5585, 3, 4, 0.62], [12348, 1, 4, 1.5], [13025, 1, 4, 0.37], [12496, 3, 4, 0.37], [23276, 1, 4, 0.46], [12663, 1, 4, 0.57], [10148, 1, 4, 0.81], [20686, 1, 4, 1.55], [11510, 3, 5, 0.36], [2324, 2, 4, 0.69], [12925, 1, 75, 1.81], [7704, 2, 208, 1.81], [94, 4, 142, 1.81], [6097, 29, 40, 1.81], [1492, 1, 43, 1.81], [7887, 4, 163, 1.81], [9784, 1, 85, 1.81], [2421, 29, 50, 1.81], [11402, 1, 51, 1.81], [7708, 2, 208, 1.81], [2050, 3, 553, 1.81], [66, 1, 43, 1.81], [9358, 1, 66, 1.81], [409, 1, 63, 1.81], [9085, 29, 36, 1.81], [3495, 3, 1187, 1.81], [972, 1, 116, 1.81], [448, 1, 55, 1.81], [24258, 1, 161, 1.81], [5208, 3, 634, 1.81], [3575, 29, 39, 1.81], [13266, 29, 132, 1.81], [5209, 3, 634, 1.81], [3337, 1, 154, 1.81], [9960, 3, 84, 1.81], [11678, 1, 529, 1.81], [5585, 3, 285, 1.81], [12496, 3, 665, 1.81], [12663, 1, 214, 1.81], [10148, 1, 124, 1.81], [11510, 3, 688, 1.81]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.98], [161, 1, 5, 0.62], [362, 2, 4, 0.48], [88, 10, 8, 0.44], [8674, 2, 4, 0.43], [11844, 2, 4, 0.75], [1409, 1, 4, 0.97], [12924, 1, 4, 0.4], [5976, 1, 4, 2.0], [23994, 29, 4, 0.55], [23992, 29, 4, 1.15], [7558, 3, 4, 0.81], [97, 11, 10, 0.84], [12925, 1, 4, 0.86], [3722, 29, 4, 1.11], [11587, 1, 4, 0.93], [13489, 1, 4, 0.57], [11091, 1, 4, 0.75], [9910, 29, 4, 0.58], [11402, 1, 4, 0.75], [11738, 2, 4, 0.98], [4032, 29, 4, 0.65], [2050, 3, 5, 0.7], [23660, 2, 4, 0.97], [24256, 1, 4, 0.67], [13488, 1, 4, 1.22], [380, 2, 4, 0.67], [7887, 4, 4, 0.44], [7573, 1, 4, 0.45], [247, 1, 4, 0.69], [2821, 3, 8, 0.58], [11411, 29, 4, 0.42], [12059, 3, 4, 0.6], [4253, 1, 4, 0.71], [24127, 3, 4, 0.6], [8659, 1, 4, 0.82], [1853, 1, 4, 1.04], [13036, 3, 5, 1.9], [332, 2, 4, 0.75], [3257, 4, 4, 1.07], [8355, 1, 4, 1.02], [1668, 1, 4, 1.58], [6266, 23, 12, 0.46], [11159, 1, 8, 1.38], [12010, 3, 4, 0.63], [11158, 1, 13, 0.62], [3386, 1, 4, 1.3], [9373, 5, 4, 0.83], [12663, 1, 4, 0.67], [8023, 1, 4, 0.9], [9374, 5, 4, 1.22], [10581, 3, 5, 0.52], [12058, 3, 4, 0.6], [161, 1, 48, 1.81], [362, 2, 165, 1.81], [88, 10, 662, 1.81], [8674, 2, 335, 1.81], [11844, 2, 310, 1.81], [12924, 1, 60, 1.81], [23994, 29, 44, 1.81], [7558, 3, 76, 1.81], [97, 11, 604, 1.81], [12925, 1, 74, 1.81], [11587, 1, 426, 1.81], [13489, 1, 143, 1.81], [11091, 1, 92, 1.81], [9910, 29, 42, 1.81], [11402, 1, 51, 1.81], [4032, 29, 108, 1.81], [2050, 3, 560, 1.81], [24256, 1, 162, 1.81], [247, 1, 105, 1.81], [2821, 3, 1547, 1.81], [11411, 29, 79, 1.81], [4253, 1, 195, 1.81], [24127, 3, 285, 1.81], [8659, 1, 142, 1.81], [332, 2, 83, 1.81], [6266, 23, 725, 1.81], [12010, 3, 175, 1.81], [11158, 1, 588, 1.81], [9373, 5, 104, 1.81], [12663, 1, 219, 1.81], [8023, 1, 156, 1.81], [12058, 3, 344, 1.81]]</t>
-  </si>
-  <si>
-    <t>[[161, 1, 5, 1.14], [6098, 29, 4, 0.51], [12721, 2, 4, 0.98], [2422, 29, 4, 0.73], [3430, 1, 4, 0.87], [11887, 1, 4, 0.66], [8674, 2, 4, 0.5], [8676, 2, 4, 0.5], [146, 2, 4, 0.66], [1492, 1, 4, 0.89], [2776, 2, 4, 0.6], [414, 1, 4, 1.1], [8926, 1, 4, 0.59], [145, 2, 4, 0.47], [3577, 29, 4, 1.0], [2775, 2, 4, 0.58], [11687, 1, 4, 0.57], [2421, 29, 4, 1.2], [11886, 1, 4, 0.5], [1446, 2, 4, 1.07], [2057, 3, 4, 3.82], [21793, 1, 5, 1.26], [3016, 68, 4, 0.94], [10149, 3, 13, 0.64], [5812, 3, 5, 0.54], [201, 3, 4, 2.13], [409, 1, 4, 0.36], [11689, 1, 4, 0.44], [45, 2, 4, 1.53], [8085, 1, 4, 0.76], [5813, 3, 5, 0.4], [524, 1, 4, 0.39], [4253, 1, 4, 0.5], [410, 1, 4, 0.72], [1703, 2, 4, 1.08], [8939, 2, 4, 0.84], [1880, 4, 4, 0.8], [74, 1, 4, 1.55], [354, 2, 4, 0.5], [3610, 24, 4, 0.73], [7706, 2, 4, 0.75], [955, 2, 4, 0.8], [12345, 1, 4, 0.58], [24258, 1, 4, 0.37], [1055, 2, 4, 0.47], [11775, 1, 4, 0.81], [11215, 1, 4, 0.83], [3673, 2, 4, 1.08], [10581, 3, 5, 1.01], [12058, 3, 4, 0.59], [2726, 3, 5, 1.36], [8945, 3, 4, 0.51], [23341, 3, 4, 0.55], [2369, 3, 4, 0.36], [4032, 29, 4, 1.09], [7708, 2, 4, 0.63], [21697, 3, 4, 0.74], [22317, 3, 4, 0.55], [2368, 3, 4, 0.8], [23489, 3, 4, 0.6], [7705, 2, 4, 0.63], [7707, 2, 4, 0.66], [6098, 29, 44, 1.81], [2422, 29, 44, 1.81], [3430, 1, 21, 1.81], [11887, 1, 28, 1.81], [8674, 2, 342, 1.81], [8676, 2, 342, 1.81], [146, 2, 184, 1.81], [1492, 1, 44, 1.81], [2776, 2, 174, 1.81], [8926, 1, 71, 1.81], [145, 2, 184, 1.81], [11687, 1, 44, 1.81], [11886, 1, 28, 1.81], [3016, 68, 57, 1.81], [5812, 3, 692, 1.81], [409, 1, 62, 1.81], [11689, 1, 44, 1.81], [8085, 1, 106, 1.81], [5813, 3, 692, 1.81], [4253, 1, 197, 1.81], [410, 1, 119, 1.81], [8939, 2, 199, 1.81], [1880, 4, 247, 1.81], [354, 2, 84, 1.81], [3610, 24, 236, 1.81], [7706, 2, 207, 1.81], [955, 2, 121, 1.81], [24258, 1, 161, 1.81], [1055, 2, 40, 1.81], [11215, 1, 88, 1.81], [12058, 3, 337, 1.81], [8945, 3, 262, 1.38], [23341, 3, 216, 1.81], [2369, 3, 411, 1.81], [7708, 2, 207, 1.81], [21697, 3, 208, 1.81], [22317, 3, 364, 1.81], [2368, 3, 411, 1.81], [23489, 3, 247, 1.81], [7705, 2, 207, 1.81], [7707, 2, 207, 1.81]]</t>
-  </si>
-  <si>
-    <t>[[145, 2, 4, 0.47], [947, 1, 4, 0.49], [6097, 29, 4, 0.64], [142, 2, 4, 0.98], [2422, 29, 4, 1.57], [6098, 29, 4, 0.62], [3430, 1, 4, 0.87], [8675, 2, 4, 0.5], [6496, 1, 4, 0.86], [336, 15, 4, 0.36], [412, 1, 4, 0.57], [8676, 2, 4, 0.5], [24723, 2, 7, 0.47], [8943, 1, 4, 0.76], [2726, 1, 6, 0.36], [414, 1, 4, 1.02], [5729, 2, 4, 0.48], [2054, 3, 4, 0.46], [8944, 3, 4, 0.65], [8926, 1, 4, 0.59], [66, 1, 4, 0.84], [2419, 29, 4, 1.04], [2188, 1, 4, 0.81], [823, 1, 4, 0.78], [20927, 1, 4, 1.6], [3891, 1, 4, 0.84], [11485, 1, 4, 0.82], [2774, 2, 4, 1.32], [19924, 2, 4, 1.02], [415, 1, 4, 0.47], [963, 1, 4, 0.94], [11402, 1, 4, 0.75], [11091, 1, 4, 0.86], [964, 15, 4, 0.51], [148, 1, 4, 0.97], [22317, 3, 4, 0.8], [1052, 2, 4, 0.63], [1548, 1, 4, 0.93], [24256, 1, 4, 0.99], [9087, 29, 4, 1.05], [9998, 29, 4, 1.03], [10124, 1, 4, 1.66], [11182, 1, 30, 1.18], [13041, 3, 4, 0.65], [5976, 1, 4, 1.12], [2335, 3, 4, 0.54], [20680, 1, 4, 0.8], [8754, 2, 4, 0.88], [12658, 1, 4, 0.76], [3338, 1, 4, 0.65], [11769, 1, 4, 0.59], [10407, 1, 4, 0.49], [186, 3, 7, 1.15], [8600, 1, 4, 0.61], [334, 2, 4, 0.7], [12870, 1, 4, 0.51], [7122, 3, 4, 0.7], [270, 3, 4, 1.03], [11585, 29, 4, 0.37], [8907, 29, 4, 0.83], [524, 1, 4, 1.29], [2743, 3, 4, 0.88], [11510, 3, 5, 0.71], [12656, 1, 4, 0.49], [1406, 2, 4, 0.47], [1683, 1, 4, 0.63], [11411, 29, 4, 1.1], [1619, 1, 4, 0.76], [1523, 1, 4, 0.52], [12010, 3, 4, 0.63], [1814, 2, 4, 0.51], [22318, 3, 4, 1.91], [3903, 14, 6, 0.73], [1853, 1, 4, 0.42], [4176, 4, 4, 1.0], [9374, 5, 4, 1.22], [3585, 3, 4, 1.06], [12030, 2, 4, 0.97], [11183, 1, 4, 0.52], [145, 2, 184, 1.81], [947, 1, 12, 1.81], [6097, 29, 40, 1.81], [6098, 29, 44, 1.81], [3430, 1, 21, 1.81], [8675, 2, 342, 1.81], [6496, 1, 47, 1.81], [336, 15, 126, 1.81], [412, 1, 98, 1.81], [8676, 2, 342, 1.81], [8943, 1, 109, 1.81], [2726, 1, 12, 1.81], [5729, 2, 59, 1.81], [2054, 3, 544, 1.81], [8944, 3, 260, 1.81], [8926, 1, 71, 1.81], [66, 1, 43, 1.81], [2188, 1, 79, 1.81], [823, 1, 46, 1.81], [11485, 1, 32, 1.81], [415, 1, 101, 1.81], [963, 1, 76, 1.81], [11402, 1, 51, 1.81], [11091, 1, 91, 1.81], [964, 15, 131, 1.81], [22317, 3, 360, 1.81], [1052, 2, 64, 1.81], [1548, 1, 111, 1.81], [13041, 3, 179, 1.81], [2335, 3, 229, 1.81], [20680, 1, 710, 1.81], [12658, 1, 97, 1.81], [3338, 1, 118, 1.81], [10407, 1, 111, 1.81], [8600, 1, 173, 1.81], [334, 2, 33, 1.81], [12870, 1, 167, 1.81], [7122, 3, 320, 1.81], [11585, 29, 196, 1.81], [2743, 3, 406, 1.81], [12656, 1, 93, 1.81], [1406, 2, 31, 1.81], [1683, 1, 218, 1.81], [1619, 1, 88, 1.81], [1523, 1, 55, 1.81], [12010, 3, 175, 1.81], [1814, 2, 85, 1.81], [3903, 14, 210, 1.81], [1853, 1, 218, 1.81], [11183, 1, 401, 1.81]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 5, 0.62], [23238, 29, 4, 0.76], [1446, 2, 4, 1.17], [7036, 1, 4, 0.44], [2424, 29, 4, 0.56], [417, 2, 4, 0.86], [6497, 1, 4, 0.86], [9910, 29, 4, 0.66], [24257, 1, 4, 0.65], [346, 1, 4, 1.03], [201, 3, 4, 0.51], [1700, 2, 4, 1.03], [12526, 2, 4, 0.88], [9, 1, 4, 0.35], [7084, 1, 9, 0.72], [12924, 1, 4, 0.62], [8106, 1, 4, 0.73], [10149, 3, 15, 0.64], [9081, 3, 8, 1.12], [823, 1, 4, 0.38], [5188, 1, 4, 0.48], [3670, 2, 4, 0.75], [416, 1, 4, 0.64], [24722, 2, 4, 0.66], [345, 3, 4, 0.37], [23234, 29, 4, 0.67], [13028, 3, 4, 0.96], [470, 1, 4, 0.35], [3016, 68, 4, 1.43], [11403, 1, 16, 0.41], [8926, 1, 4, 0.47], [415, 1, 4, 0.59], [8677, 3, 5, 1.11], [5208, 3, 4, 0.65], [13488, 1, 4, 0.78], [11954, 1, 4, 0.5], [7558, 3, 4, 0.47], [3495, 3, 10, 0.43], [2421, 29, 4, 1.02], [12229, 2, 4, 1.01], [19047, 3, 4, 1.01], [336, 15, 4, 0.95], [8599, 1, 4, 0.9], [9460, 1, 4, 1.47], [18, 1, 4, 0.5], [9288, 29, 4, 0.6], [12059, 3, 4, 0.55], [11711, 3, 4, 0.42], [13253, 29, 4, 0.37], [2695, 3, 4, 0.42], [7703, 2, 4, 0.4], [9828, 3, 4, 1.03], [24256, 1, 4, 0.79], [2335, 3, 4, 0.87], [5585, 3, 4, 0.8], [21700, 3, 4, 1.7], [10536, 3, 4, 1.11], [11967, 1, 4, 0.68], [21060, 1, 4, 0.6], [12234, 3, 4, 0.39], [14018, 3, 4, 1.54], [13283, 1, 4, 0.56], [10939, 2, 4, 0.91], [9945, 3, 4, 0.47], [11719, 1, 4, 0.77], [2495, 2, 4, 0.91], [21701, 3, 4, 1.23], [974, 3, 4, 0.72], [11610, 3, 4, 0.8], [308, 1, 4, 0.9], [8274, 3, 4, 0.59], [1744, 1, 4, 0.85], [5853, 1, 4, 0.53], [3583, 3, 4, 0.36], [10941, 2, 4, 0.7], [21703, 3, 4, 1.07], [1880, 4, 4, 0.63], [12058, 3, 4, 0.55], [12647, 1, 4, 1.09], [12235, 3, 4, 0.39], [8897, 3, 4, 0.66], [3462, 2, 4, 0.51], [22287, 1, 4, 0.77], [21482, 7, 4, 1.51], [5164, 1, 4, 0.92], [1619, 1, 4, 0.63], [1601, 68, 4, 0.51], [12237, 3, 4, 0.5], [1598, 68, 4, 0.41], [1602, 68, 4, 1.15], [2369, 3, 4, 0.68], [3899, 3, 4, 0.46], [19583, 3, 4, 0.99], [3585, 3, 5, 0.67], [3582, 3, 4, 0.67], [3581, 3, 5, 0.88], [12238, 3, 4, 0.41], [5452, 1, 4, 0.54], [589, 2, 171, 1.78], [23238, 29, 43, 1.78], [7036, 1, 149, 1.78], [2424, 29, 40, 1.78], [417, 2, 180, 1.78], [9910, 29, 42, 1.78], [24257, 1, 164, 1.78], [201, 3, 352, 1.78], [12526, 2, 317, 1.78], [9, 1, 40, 1.78], [7084, 1, 25, 1.78], [12924, 1, 61, 1.78], [8106, 1, 39, 1.78], [823, 1, 46, 1.78], [5188, 1, 39, 1.78], [3670, 2, 284, 1.78], [416, 1, 99, 1.78], [345, 3, 352, 1.78], [23234, 29, 36, 1.78], [11403, 1, 102, 1.78], [8926, 1, 72, 1.78], [415, 1, 99, 1.78], [5208, 3, 652, 1.78], [13488, 1, 142, 1.78], [7558, 3, 75, 1.78], [3495, 3, 1140, 1.78], [18, 1, 32, 1.6], [9288, 29, 75, 1.78], [12059, 3, 115, 1.33], [11711, 3, 226, 1.78], [13253, 29, 127, 1.78], [2695, 3, 688, 1.78], [7703, 2, 205, 1.78], [24256, 1, 164, 1.78], [5585, 3, 290, 1.78], [21060, 1, 360, 1.78], [13283, 1, 382, 1.78], [10939, 2, 155, 1.78], [9945, 3, 368, 1.78], [974, 3, 173, 1.78], [11610, 3, 173, 1.78], [308, 1, 196, 1.78], [1744, 1, 195, 1.78], [5853, 1, 177, 1.78], [3583, 3, 228, 1.78], [10941, 2, 155, 1.78], [1880, 4, 249, 1.78], [12058, 3, 115, 1.33], [8897, 3, 333, 1.78], [3462, 2, 69, 1.78], [22287, 1, 140, 1.78], [5164, 1, 56, 1.78], [1619, 1, 86, 1.78], [1601, 68, 177, 1.78], [12237, 3, 177, 1.78], [2369, 3, 406, 1.78], [3899, 3, 42, 1.78], [3585, 3, 228, 1.78], [3582, 3, 228, 1.78], [3581, 3, 228, 1.78], [12238, 3, 181, 1.78], [5452, 1, 167, 1.78]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 4, 0.81], [990, 2, 4, 0.38], [151, 1, 4, 0.74], [6097, 29, 4, 0.49], [248, 1, 4, 0.44], [6098, 29, 4, 0.52], [1124, 2, 5, 0.37], [3478, 2, 4, 0.72], [148, 1, 4, 0.67], [470, 1, 4, 0.48], [94, 4, 4, 0.4], [345, 1, 4, 1.6], [9507, 3, 4, 0.39], [8650, 2, 4, 0.89], [10530, 29, 4, 0.5], [415, 1, 4, 0.44], [8677, 3, 5, 1.25], [1703, 2, 4, 0.48], [8676, 2, 4, 0.53], [506, 1, 4, 0.99], [110, 4, 4, 0.6], [168, 3, 4, 0.62], [24257, 1, 4, 0.69], [3900, 3, 4, 0.38], [2726, 3, 4, 0.53], [991, 2, 4, 0.73], [8945, 1, 4, 1.01], [5435, 1, 4, 0.43], [9358, 1, 4, 1.07], [2105, 3, 7, 0.76], [8157, 29, 4, 0.78], [11967, 1, 4, 0.99], [9085, 29, 4, 0.98], [8557, 3, 4, 0.85], [11510, 3, 5, 0.76], [18964, 1, 4, 0.59], [11710, 1, 4, 0.95], [13489, 1, 4, 0.44], [39, 1, 4, 0.62], [8690, 10, 5, 1.3], [13034, 3, 5, 0.87], [6792, 2, 4, 0.62], [9778, 1, 4, 0.68], [11399, 2, 4, 1.04], [7007, 1, 4, 0.47], [515, 24, 4, 1.04], [2438, 1, 4, 0.92], [5642, 3, 4, 1.06], [2730, 3, 4, 0.44], [3670, 2, 4, 1.65], [5584, 3, 4, 0.76], [6575, 3, 4, 0.44], [12722, 2, 4, 0.73], [20208, 3, 4, 1.08], [3059, 3, 4, 0.47], [23339, 3, 4, 0.47], [8943, 3, 4, 0.38], [23336, 3, 4, 3.08], [955, 2, 4, 1.58], [5084, 2, 4, 0.35], [2528, 29, 4, 0.82], [3576, 29, 4, 0.72], [11402, 1, 4, 0.84], [10536, 3, 4, 1.15], [4222, 4, 4, 1.2], [1706, 2, 4, 1.15], [3577, 29, 4, 0.86], [24723, 2, 4, 2.07], [330, 3, 4, 1.41], [5209, 3, 4, 0.97], [24256, 1, 4, 0.36], [9779, 1, 4, 0.6], [9781, 1, 4, 0.82], [3278, 29, 4, 0.89], [12304, 1, 4, 0.54], [169, 4, 4, 0.63], [11965, 1, 4, 0.35], [2234, 1, 4, 1.21], [10382, 3, 4, 0.37], [3575, 29, 4, 0.82], [6966, 3, 4, 0.73], [6424, 3, 4, 0.95], [11503, 1, 4, 1.14], [9780, 1, 4, 0.82], [11625, 29, 4, 0.78], [11677, 1, 4, 0.93], [11080, 3, 4, 0.91], [10580, 3, 4, 1.14], [8686, 3, 4, 1.4], [11059, 3, 4, 2.17], [2324, 2, 15, 0.69], [11868, 3, 4, 0.44], [19971, 3, 4, 0.96], [10176, 29, 4, 0.45], [560, 1, 4, 0.81], [1765, 25, 4, 1.06], [5736, 2, 4, 2.15], [10599, 3, 4, 0.74], [23335, 14, 5, 0.41], [7362, 3, 4, 0.72], [9125, 1, 4, 0.49], [209, 3, 4, 0.58], [11587, 1, 6, 0.44], [11467, 1, 4, 0.76], [10531, 14, 8, 0.62], [10719, 29, 7, 0.84], [13467, 1, 4, 0.9], [2367, 3, 4, 0.71], [10170, 1, 4, 0.71], [8637, 3, 4, 0.4], [23435, 1, 4, 0.65], [1813, 2, 4, 0.82], [12901, 3, 4, 1.36], [358, 1, 4, 0.45], [12513, 1, 4, 1.2], [10598, 3, 4, 0.71], [8963, 1, 4, 1.43], [22990, 1, 4, 1.04], [23684, 1, 4, 1.04], [9182, 1, 4, 0.9], [12903, 3, 4, 0.5], [10468, 10, 13, 0.41], [10453, 10, 5, 0.52], [13199, 23, 4, 1.75], [13183, 1, 4, 0.67], [22884, 3, 4, 1.44], [22631, 3, 4, 0.47], [3585, 3, 4, 0.45], [13182, 1, 4, 1.16], [10722, 2, 4, 0.92], [2946, 3, 4, 0.92], [688, 3, 4, 1.75], [3582, 3, 4, 1.68], [806, 3, 4, 0.37], [2168, 3, 4, 0.54], [12905, 3, 4, 0.52], [12920, 3, 4, 1.05], [936, 3, 5, 0.7], [11422, 3, 4, 0.43], [12904, 3, 4, 1.36], [23434, 1, 4, 1.24], [23607, 3, 4, 1.96], [12238, 3, 4, 0.65], [9250, 3, 5, 1.54], [23683, 1, 4, 0.88], [13860, 1, 4, 0.52], [13858, 1, 4, 1.73], [13857, 1, 4, 0.95], [22908, 3, 7, 1.01], [11944, 3, 5, 0.51], [23437, 1, 4, 0.68], [11333, 7, 6, 0.5], [805, 3, 4, 0.36], [2989, 3, 4, 1.12], [20315, 3, 4, 0.7], [9251, 3, 5, 1.38], [11899, 2, 4, 0.87], [10465, 2, 5, 0.42], [990, 2, 57, 1.36], [6097, 29, 38, 1.36], [248, 1, 60, 1.36], [6098, 29, 42, 1.36], [1124, 2, 205, 1.36], [148, 1, 99, 1.36], [470, 1, 37, 1.36], [94, 4, 136, 1.36], [9507, 3, 220, 1.36], [415, 1, 95, 1.36], [110, 4, 232, 1.36], [168, 3, 445, 1.36], [24257, 1, 156, 1.36], [3900, 3, 52, 1.36], [5435, 1, 52, 1.36], [18964, 1, 74, 1.36], [13489, 1, 136, 1.36], [39, 1, 126, 1.36], [9778, 1, 50, 1.36], [7007, 1, 87, 1.36], [2730, 3, 95, 1.36], [3059, 3, 221, 1.36], [23339, 3, 201, 1.36], [8943, 3, 423, 1.36], [5084, 2, 59, 1.36], [24256, 1, 156, 1.36], [9779, 1, 50, 1.36], [12304, 1, 126, 1.36], [169, 4, 235, 1.36], [11965, 1, 48, 1.36], [10382, 3, 82, 1.36], [11868, 3, 318, 1.36], [10176, 29, 144, 1.36], [23335, 14, 391, 1.36], [9125, 1, 77, 1.36], [209, 3, 144, 1.36], [11587, 1, 400, 1.36], [358, 1, 49, 1.36], [10468, 10, 1878, 1.36], [10453, 10, 1878, 1.36], [22631, 3, 800, 1.36], [806, 3, 273, 1.36]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 7, 1.62], [8672, 2, 10, 0.9], [83, 2, 7, 2.36], [856, 1, 7, 1.52], [1767, 2, 7, 1.17], [1124, 2, 11, 1.77], [5165, 1, 7, 1.06], [1070, 2, 7, 1.89], [1622, 1, 7, 1.4], [823, 1, 7, 0.88], [3889, 1, 7, 4.0], [5005, 1, 7, 1.79], [1766, 2, 7, 1.89], [7036, 1, 7, 1.05], [506, 1, 7, 1.1], [345, 3, 7, 2.57], [2109, 1, 7, 1.43], [346, 1, 7, 2.02], [10149, 3, 21, 1.66], [24257, 1, 7, 1.42], [20498, 1, 7, 2.61], [8674, 2, 7, 3.77], [307, 2, 7, 3.97], [2423, 29, 7, 1.87], [10530, 29, 7, 2.13], [9069, 1, 7, 1.09], [11150, 1, 7, 1.71], [2878, 1, 7, 1.04], [991, 2, 7, 3.36], [336, 15, 7, 2.55], [9828, 3, 7, 2.27], [38, 1, 7, 0.93], [7324, 1, 7, 0.8], [974, 3, 7, 1.16], [2055, 3, 7, 1.64], [590, 15, 7, 2.89], [8945, 1, 7, 0.98], [12150, 1, 7, 1.78], [8690, 1, 7, 2.5], [5434, 1, 7, 0.76], [19687, 1, 7, 1.89], [11489, 1, 7, 2.11], [1519, 3, 19, 2.08], [8898, 3, 7, 2.71], [6540, 29, 7, 1.27], [11089, 1, 7, 1.88], [1163, 3, 7, 1.59], [2608, 1, 7, 1.46], [440, 3, 7, 1.63], [13034, 3, 8, 0.88], [23611, 3, 8, 2.1], [995, 2, 7, 2.66], [11965, 1, 7, 1.02], [21269, 3, 7, 2.87], [4076, 3, 7, 2.58], [1604, 68, 7, 2.75], [13489, 1, 7, 2.16], [473, 1, 7, 0.92], [11954, 1, 7, 3.3], [5736, 2, 7, 0.92], [3610, 24, 7, 1.5], [9608, 1, 7, 1.53], [3575, 29, 7, 0.99], [11952, 1, 7, 1.88], [2934, 1, 7, 1.04], [3059, 3, 7, 1.69], [5813, 3, 7, 1.94], [24261, 1, 7, 0.94], [14039, 3, 7, 2.64], [8897, 3, 7, 2.65], [10147, 1, 7, 2.14], [3910, 7, 8, 1.93], [353, 1, 7, 1.42], [12501, 1, 7, 2.93], [12418, 1, 7, 1.97], [8754, 2, 8, 1.59], [3278, 29, 7, 1.6], [4883, 332, 7, 2.09], [8284, 2, 7, 0.94], [5976, 1, 7, 2.57], [22325, 1, 7, 2.26], [10581, 3, 7, 3.28], [10397, 3, 7, 2.97], [24723, 2, 7, 2.4], [1473, 1, 7, 1.46], [19582, 1, 7, 1.86], [1880, 4, 7, 1.58], [7520, 1, 7, 1.6], [20978, 1, 7, 1.08], [11586, 1, 7, 2.71], [13038, 3, 7, 2.05], [2324, 2, 13, 2.49], [14029, 3, 7, 1.32], [6422, 3, 7, 2.21], [6424, 3, 7, 2.22], [13879, 1, 7, 3.83], [24728, 2, 7, 2.4], [23907, 1, 7, 3.22], [9780, 1, 7, 1.31], [11182, 1, 7, 1.54], [2308, 29, 7, 1.95], [5650, 2, 7, 1.38], [8688, 14, 7, 2.01], [2744, 3, 7, 1.11], [12647, 1, 7, 2.14], [9834, 2, 8, 2.05], [10521, 3, 7, 4.32], [13336, 29, 7, 1.75], [23335, 14, 7, 2.53], [10048, 1, 7, 1.47], [4001, 3, 8, 1.34], [13483, 1, 7, 1.17], [22888, 3, 7, 2.03], [21807, 1, 7, 1.78], [13481, 1, 7, 1.53], [11339, 3, 7, 1.01], [20963, 3, 7, 2.47], [9995, 80, 7, 2.75], [1134, 1, 7, 3.86], [12227, 2, 7, 1.76], [1324, 1, 7, 2.59], [12912, 3, 7, 3.1], [11636, 1, 7, 1.64], [10461, 3, 8, 1.61], [11184, 1, 7, 1.93], [11498, 1, 7, 1.1], [23540, 3, 7, 1.14], [8254, 25, 7, 1.55], [10580, 3, 7, 3.6], [10459, 3, 8, 1.67], [7191, 1, 7, 1.38], [385, 1, 7, 3.04], [12497, 3, 7, 1.27], [21171, 10, 10, 1.11], [1277, 1, 7, 1.5], [10462, 3, 7, 1.29], [10609, 1, 7, 1.98], [12426, 1, 7, 2.97], [2985, 3, 7, 2.29], [12646, 1, 7, 2.1], [12663, 1, 7, 2.03], [3674, 2, 7, 3.01], [20956, 7, 7, 3.96], [13291, 1, 7, 2.42], [10988, 2, 7, 1.78], [2367, 3, 7, 1.09], [5733, 2, 7, 1.34], [13403, 3, 7, 0.88], [22922, 1, 7, 1.51], [21680, 3, 7, 1.81], [12871, 1, 7, 2.36], [24132, 2, 7, 1.23], [9489, 2, 7, 1.42], [13030, 3, 7, 3.56], [22921, 3, 7, 1.15], [11659, 3, 7, 1.19], [382, 1, 7, 3.74], [13180, 1, 7, 1.55], [13164, 1, 7, 2.18], [11678, 1, 7, 3.12], [13116, 1, 7, 1.82], [21476, 7, 7, 1.25], [13462, 1, 7, 3.51], [12723, 1, 7, 1.62], [6036, 23, 7, 1.81], [22908, 3, 8, 2.06], [12609, 1, 7, 1.25], [13178, 1, 7, 2.33], [12496, 3, 7, 0.94], [13117, 1, 7, 1.1], [1515, 1, 7, 1.48], [3945, 23, 15, 1.39], [20978, 1, 40, 1.49], [14029, 3, 209, 1.49], [9780, 1, 49, 1.49], [2744, 3, 362, 1.49], [10048, 1, 80, 1.49], [4001, 3, 848, 1.49], [13483, 1, 194, 1.49], [11339, 3, 290, 1.49], [11498, 1, 120, 1.49], [23540, 3, 159, 1.49], [7191, 1, 89, 1.49], [12497, 3, 616, 1.49], [21171, 10, 626, 1.49], [10462, 3, 645, 1.49], [2367, 3, 317, 1.49], [5733, 2, 54, 1.49], [13403, 3, 144, 1.49], [24132, 2, 102, 1.49], [9489, 2, 115, 1.49], [22921, 3, 635, 1.49], [11659, 3, 293, 1.49], [21476, 7, 377, 1.49], [12609, 1, 109, 1.49], [12496, 3, 616, 1.49], [13117, 1, 50, 1.49], [1515, 1, 124, 1.49], [3945, 23, 1374, 1.49]]</t>
-  </si>
-  <si>
-    <t>[[5165, 1, 7, 1.3], [143, 2, 7, 1.14], [7004, 1, 7, 2.51], [2424, 29, 7, 1.17], [146, 2, 7, 1.29], [83, 2, 7, 2.17], [8650, 2, 7, 2.57], [24722, 2, 7, 2.65], [94, 4, 7, 1.47], [1492, 1, 7, 2.25], [950, 1, 7, 1.64], [10721, 29, 7, 2.24], [7573, 1, 10, 1.23], [361, 2, 7, 1.02], [34, 1, 7, 2.24], [9081, 3, 14, 2.32], [66, 1, 7, 1.23], [3896, 29, 7, 3.18], [33, 1, 7, 1.28], [24725, 2, 7, 3.57], [4232, 29, 7, 1.95], [35, 1, 7, 1.16], [346, 1, 7, 2.94], [7084, 3, 7, 1.57], [12304, 1, 7, 1.41], [12526, 2, 7, 0.79], [4043, 29, 7, 1.78], [215, 4, 7, 2.77], [20498, 1, 7, 0.99], [13280, 1, 7, 1.68], [11426, 29, 7, 0.88], [470, 1, 7, 2.42], [1413, 15, 7, 1.5], [2859, 15, 7, 2.45], [11844, 2, 7, 0.81], [11425, 29, 7, 0.88], [24724, 2, 7, 2.65], [418, 2, 7, 1.16], [13260, 29, 7, 1.83], [1091, 1, 7, 0.9], [11495, 1, 7, 1.18], [7706, 2, 7, 2.07], [12661, 1, 7, 2.46], [3047, 3, 7, 1.51], [21059, 1, 7, 2.29], [11093, 1, 7, 0.99], [1277, 1, 7, 2.97], [21809, 1, 7, 1.55], [2934, 1, 7, 1.53], [8907, 29, 7, 2.39], [3898, 3, 7, 0.76], [12417, 1, 7, 1.14], [8897, 3, 7, 2.12], [12647, 1, 7, 2.02], [11633, 1, 7, 1.36], [524, 1, 7, 3.4], [21697, 3, 7, 1.63], [9069, 1, 7, 1.64], [25, 1, 7, 3.46], [13278, 1, 7, 1.04], [3337, 1, 7, 2.25], [1324, 1, 7, 3.44], [2406, 29, 7, 2.95], [12373, 1, 7, 1.75], [13035, 3, 7, 2.58], [3338, 1, 7, 3.33], [5729, 2, 7, 1.39], [9797, 3, 13, 2.22], [1515, 1, 7, 1.71], [10581, 3, 7, 3.59], [22287, 1, 7, 0.89], [8023, 1, 7, 2.76], [8121, 3, 7, 1.52], [21700, 3, 7, 1.67], [4968, 1, 8, 1.24], [12887, 1, 7, 2.54], [5730, 2, 7, 3.08], [10580, 3, 7, 3.41], [13279, 1, 7, 3.23], [9182, 1, 7, 1.15], [11895, 1, 7, 2.05], [10630, 2, 7, 3.83], [23563, 1, 7, 2.5], [12883, 1, 7, 3.09], [21701, 3, 7, 1.67], [23441, 1, 7, 1.61], [2481, 1, 7, 1.33], [5648, 2, 7, 0.69], [13291, 1, 7, 5.0], [10632, 2, 7, 3.83], [358, 1, 7, 3.49], [23445, 1, 7, 3.37], [23439, 1, 7, 2.74], [12889, 1, 7, 1.66], [23038, 10, 8, 2.29], [12220, 3, 8, 3.09], [22921, 3, 7, 2.95], [5652, 2, 7, 1.25], [4720, 3, 7, 3.02], [12598, 2, 7, 2.31], [21679, 3, 7, 1.19], [1294, 1, 7, 2.61], [8051, 2, 7, 2.55], [12891, 1, 7, 2.74], [12335, 2, 7, 1.38], [2821, 3, 10, 1.38], [22922, 3, 7, 2.95], [23438, 1, 7, 1.9], [8156, 2, 7, 1.08], [12992, 3, 12, 1.85], [13326, 3, 7, 2.88], [12857, 1, 7, 1.71], [23443, 1, 7, 4.02], [10639, 2, 7, 3.83], [23437, 1, 7, 3.73], [24134, 2, 7, 2.42], [10635, 2, 7, 0.92], [1683, 1, 7, 1.75], [10638, 2, 7, 3.1], [12868, 1, 7, 1.32], [12851, 1, 7, 1.48], [12860, 1, 7, 1.48], [12861, 1, 7, 1.48], [12869, 1, 7, 1.71], [12863, 1, 7, 1.14]]</t>
-  </si>
-  <si>
-    <t>[[8938, 2, 7, 1.57], [362, 2, 7, 0.92], [615, 2, 7, 3.4], [24257, 1, 7, 1.28], [3982, 3, 22, 2.52], [11150, 1, 7, 1.21], [24260, 1, 7, 1.28], [3391, 1, 7, 2.56], [1413, 15, 7, 1.73], [1504, 2, 7, 0.93], [20256, 2, 7, 1.61], [19970, 29, 7, 1.46], [8649, 2, 7, 4.19], [345, 3, 7, 1.66], [2859, 15, 7, 1.85], [5434, 1, 7, 1.13], [1490, 1, 7, 1.54], [3495, 3, 21, 2.91], [590, 15, 7, 1.13], [2193, 1, 13, 1.23], [3981, 3, 22, 2.03], [9827, 3, 7, 2.02], [20486, 1, 7, 0.82], [11306, 2, 7, 2.23], [2805, 137, 9, 2.69], [9945, 1, 12, 2.01], [4076, 3, 7, 1.41], [3049, 3, 7, 3.09], [10388, 2, 7, 1.68], [9186, 29, 7, 1.6], [9829, 3, 7, 2.11], [36, 1, 7, 1.49], [5005, 1, 7, 1.56], [448, 1, 7, 1.37], [27, 1, 7, 3.13], [2878, 1, 7, 2.04], [23234, 29, 7, 1.97], [40, 1, 7, 3.49], [26, 1, 7, 1.87], [12235, 3, 7, 2.14], [12058, 3, 7, 0.93], [10596, 3, 7, 1.54], [20680, 1, 7, 2.27], [11610, 3, 7, 1.12], [11813, 1, 7, 2.66], [12418, 1, 7, 2.68], [3053, 3, 7, 2.48], [20978, 1, 7, 3.32], [1667, 3, 7, 2.47], [5513, 2, 7, 0.84], [3910, 7, 8, 1.37], [1728, 1, 7, 2.29], [3079, 3, 7, 2.19], [10279, 3, 7, 1.41], [13282, 1, 7, 1.93], [10595, 3, 7, 1.3], [6967, 3, 7, 2.13], [13287, 1, 7, 1.72], [4175, 3, 13, 1.97], [3071, 3, 7, 1.93], [186, 3, 15, 1.39], [24729, 2, 7, 3.46], [13291, 1, 7, 1.49], [11184, 1, 7, 2.37], [3585, 3, 7, 1.55], [10599, 3, 7, 1.48], [2365, 3, 7, 1.44], [3583, 3, 7, 1.84], [3610, 24, 7, 1.62], [12883, 1, 7, 0.84], [12430, 1, 7, 2.54], [23491, 3, 7, 1.32], [12887, 1, 7, 1.4], [10598, 3, 7, 1.9], [3080, 3, 7, 2.15], [12723, 1, 7, 1.1], [691, 3, 7, 1.19], [13279, 1, 7, 1.93], [11182, 1, 7, 2.64], [23493, 3, 7, 1.32], [10635, 2, 7, 2.2], [12621, 1, 7, 5.0], [13289, 1, 7, 1.74], [12724, 1, 7, 0.98], [14029, 3, 7, 2.21], [12882, 1, 7, 1.4], [2368, 3, 7, 1.48], [3988, 4, 7, 1.95], [23492, 3, 7, 1.32], [10278, 3, 7, 2.83], [21010, 2, 7, 1.43], [11868, 3, 7, 1.63], [3582, 3, 7, 2.72], [7358, 3, 7, 1.54], [3581, 3, 7, 2.76], [21003, 2, 7, 1.43], [13937, 1, 7, 1.14], [3584, 3, 7, 1.16], [23490, 3, 7, 1.72], [11848, 1, 7, 1.8], [1880, 4, 7, 0.96], [12563, 1, 7, 1.59]]</t>
-  </si>
-  <si>
-    <t>[[151, 1, 7, 1.43], [130, 1, 7, 1.97], [59, 1, 7, 2.33], [6097, 29, 7, 0.95], [305, 2, 7, 1.13], [146, 2, 7, 2.18], [201, 1, 7, 3.59], [143, 2, 7, 1.61], [5005, 1, 7, 1.61], [144, 2, 7, 1.07], [345, 1, 7, 3.07], [413, 1, 7, 1.25], [145, 2, 7, 2.22], [1070, 2, 7, 1.69], [346, 1, 7, 2.02], [21793, 1, 7, 1.56], [9760, 29, 7, 2.06], [5513, 2, 7, 1.15], [418, 2, 7, 1.41], [23, 1, 7, 2.02], [168, 3, 7, 1.2], [214, 3, 15, 2.07], [6540, 29, 11, 2.91], [9691, 1, 7, 1.59], [1409, 15, 7, 1.72], [9613, 1, 7, 1.44], [974, 3, 7, 1.72], [2726, 3, 7, 2.78], [8945, 1, 7, 2.69], [2322, 2, 7, 1.22], [10780, 1, 8, 2.72], [11965, 1, 7, 0.68], [11767, 1, 7, 2.68], [149, 2, 7, 1.37], [5729, 2, 7, 2.15], [24258, 1, 7, 1.17], [380, 2, 7, 2.5], [1163, 3, 7, 1.19], [11711, 3, 7, 1.69], [3049, 3, 7, 1.34], [5831, 3, 7, 2.57], [12059, 3, 7, 1.49], [17, 1, 7, 1.32], [2105, 3, 12, 1.52], [9085, 29, 7, 2.04], [3048, 3, 7, 2.19], [8635, 3, 7, 0.83], [1234, 1, 7, 1.37], [8688, 14, 8, 2.1], [23335, 1, 7, 1.32], [3898, 3, 7, 1.57], [13034, 3, 9, 1.71], [8557, 3, 7, 1.65], [995, 2, 7, 1.57], [2729, 3, 7, 2.19], [11710, 1, 7, 1.83], [23336, 3, 7, 5.0], [332, 2, 7, 1.12], [9997, 80, 7, 2.14], [13033, 3, 8, 1.53], [4927, 12, 7, 1.76], [9778, 1, 7, 1.3], [10397, 3, 7, 2.27], [2736, 3, 7, 1.84], [3908, 7, 8, 1.41], [20961, 1, 7, 2.63], [1705, 2, 7, 1.19], [2326, 2, 7, 1.38], [12418, 1, 7, 2.19], [13198, 29, 7, 2.34], [19583, 1, 7, 1.19], [10398, 2, 7, 1.7], [20220, 3, 7, 1.14], [21683, 1, 7, 2.04], [9186, 29, 7, 2.46], [19924, 2, 7, 2.05], [23489, 3, 7, 1.36], [8058, 1, 7, 2.53], [1407, 2, 7, 1.69], [14038, 3, 7, 3.33], [11586, 1, 11, 2.99], [10936, 2, 7, 4.48], [6805, 1, 7, 2.81], [22330, 3, 7, 3.45], [22920, 1, 7, 2.19], [19582, 1, 7, 1.55], [2732, 3, 7, 3.1], [3906, 14, 7, 1.07], [11178, 1, 7, 1.98], [3053, 3, 7, 5.0], [5084, 2, 7, 1.01], [9781, 1, 7, 1.58], [11159, 1, 15, 2.04], [11920, 1, 7, 0.96], [21781, 2, 7, 1.26], [6931, 2, 7, 2.61], [958, 2, 7, 1.55], [3910, 7, 8, 1.55], [23337, 3, 7, 1.35], [8085, 1, 7, 1.46], [3977, 3, 7, 2.36], [5650, 2, 7, 1.27], [14015, 3, 8, 1.78], [2013, 2, 7, 1.76], [2738, 3, 7, 1.27], [5648, 2, 7, 2.06], [13336, 29, 7, 1.45], [7363, 2, 7, 1.55], [2287, 29, 7, 1.18], [9780, 1, 7, 1.57], [11339, 3, 7, 2.24], [2194, 1, 8, 1.28], [5722, 2, 7, 2.69], [23539, 3, 7, 1.74], [10521, 3, 7, 2.63], [13278, 1, 7, 2.74], [11467, 1, 7, 2.43], [3673, 2, 7, 2.4], [12430, 1, 7, 2.04], [10278, 3, 7, 1.04], [10994, 2, 7, 1.72], [11426, 29, 7, 1.34], [10507, 2, 7, 1.54], [21701, 3, 7, 2.04], [5642, 3, 7, 2.57], [10279, 3, 7, 1.95], [13289, 1, 7, 1.62], [13284, 1, 7, 2.6], [13183, 1, 7, 1.44], [10594, 3, 7, 1.23], [10446, 1, 7, 1.17], [13171, 1, 7, 2.24], [12723, 1, 7, 1.3], [13282, 1, 7, 2.3], [20196, 2, 7, 1.47], [13279, 1, 7, 3.03], [13886, 1, 7, 1.97], [13287, 1, 7, 1.06], [2946, 3, 7, 1.91], [6036, 23, 7, 1.33], [22921, 1, 7, 3.93], [4720, 3, 7, 3.02], [13291, 1, 7, 1.13], [10596, 3, 7, 2.08], [3057, 3, 7, 0.73], [13285, 1, 7, 2.3], [10595, 3, 7, 1.67], [3024, 3, 7, 2.2], [11425, 29, 7, 1.83], [20647, 2, 7, 1.11], [10465, 2, 8, 0.93], [13167, 1, 7, 2.04], [23562, 1, 7, 2.16], [13879, 1, 7, 2.62], [12883, 1, 7, 2.16], [13168, 1, 7, 2.34], [13884, 1, 7, 1.97], [23441, 1, 7, 2.16], [12882, 1, 7, 2.08], [964, 15, 7, 1.75], [13199, 23, 7, 3.36], [21010, 2, 7, 4.63], [21480, 7, 7, 4.36], [21012, 2, 8, 3.43], [7629, 1, 7, 0.93], [3338, 1, 7, 1.46], [3986, 4, 7, 1.92], [13290, 1, 7, 1.13], [21691, 3, 7, 3.52], [5517, 1, 7, 0.93], [2731, 3, 7, 2.22], [12860, 1, 7, 1.96], [13108, 3, 8, 1.88], [11721, 3, 8, 0.64], [12861, 1, 7, 3.93], [289, 3, 7, 0.96], [9083, 3, 8, 4.29], [22954, 3, 7, 1.43], [5650, 2, 60, 1.36], [2738, 3, 326, 1.36], [2287, 29, 37, 1.36], [2194, 1, 120, 1.36], [10278, 3, 294, 1.36], [11426, 29, 43, 1.36], [10594, 3, 146, 1.36], [10446, 1, 156, 1.36], [12723, 1, 335, 1.36], [13287, 1, 345, 1.36], [6036, 23, 716, 1.36], [13291, 1, 345, 1.36], [3057, 3, 98, 1.36], [20647, 2, 80, 1.36], [10465, 2, 80, 1.36], [7629, 1, 90, 1.36], [13290, 1, 345, 1.36], [5517, 1, 90, 1.36], [11721, 3, 1296, 1.36], [289, 3, 648, 1.36]]</t>
-  </si>
-  <si>
-    <t>[[94, 4, 7, 1.47], [5165, 1, 7, 1.3], [1492, 1, 7, 2.25], [9, 1, 7, 1.37], [24257, 1, 7, 0.79], [144, 2, 7, 1.07], [2436, 4, 7, 2.4], [146, 2, 7, 1.29], [23380, 29, 7, 1.94], [346, 1, 7, 2.94], [5435, 1, 7, 1.16], [12526, 2, 7, 0.79], [6158, 2, 7, 1.35], [8356, 1, 7, 1.76], [24258, 1, 7, 1.33], [10721, 29, 7, 2.24], [417, 2, 7, 0.78], [2805, 137, 9, 1.58], [12662, 1, 7, 2.09], [3896, 29, 7, 3.18], [5005, 1, 7, 3.36], [11426, 29, 7, 0.88], [8677, 3, 7, 1.71], [2055, 3, 7, 2.37], [70, 1, 7, 1.48], [11495, 1, 7, 1.18], [2336, 3, 8, 1.0], [448, 1, 7, 1.09], [19969, 29, 7, 1.07], [9827, 3, 7, 1.43], [2422, 80, 7, 1.46], [19924, 2, 7, 1.95], [2859, 15, 7, 2.45], [3334, 5, 7, 3.33], [21683, 1, 7, 2.96], [24256, 1, 7, 1.24], [19970, 29, 7, 1.22], [11585, 29, 7, 1.11], [3979, 3, 13, 3.28], [2528, 29, 7, 3.14], [8058, 1, 7, 3.07], [3892, 1, 7, 1.35], [8085, 1, 8, 1.21], [10531, 14, 8, 1.93], [11726, 29, 7, 2.37], [24127, 3, 7, 2.45], [3894, 1, 7, 5.0], [333, 2, 7, 1.57], [10581, 3, 7, 3.59], [5579, 2, 7, 1.29], [10825, 21, 13, 2.56], [415, 1, 7, 1.13], [23039, 1, 7, 1.86], [3475, 2, 7, 1.93], [22287, 1, 7, 0.89], [24126, 3, 7, 1.97], [11503, 1, 8, 1.54], [20682, 1, 7, 2.53], [13879, 1, 7, 3.83], [12373, 1, 7, 1.75], [9493, 1, 7, 1.66], [13885, 1, 7, 5.0], [10580, 3, 7, 3.41], [12352, 1, 7, 2.86], [20680, 1, 7, 2.53], [14017, 3, 7, 1.85], [7629, 1, 7, 0.84], [12598, 2, 7, 2.31], [13293, 3, 7, 1.5], [12897, 1, 7, 2.09], [11706, 3, 7, 1.36], [13880, 1, 7, 3.27], [13886, 1, 7, 2.61], [12379, 1, 7, 1.76], [26, 1, 7, 2.32], [8688, 14, 7, 1.61], [23436, 1, 7, 3.73], [13324, 3, 7, 2.3], [24132, 2, 7, 1.91], [24629, 1, 7, 1.18], [13884, 1, 7, 5.0], [10630, 2, 7, 3.83], [13488, 1, 7, 2.81], [11611, 2, 7, 0.98], [3902, 14, 8, 1.46], [10175, 1, 7, 1.57], [12497, 3, 7, 1.29], [1602, 68, 7, 2.51], [24134, 2, 7, 2.42], [563, 2, 7, 1.44], [12055, 2, 7, 3.07], [12496, 3, 7, 2.19], [2099, 2, 7, 4.36], [25288, 3, 12, 1.96], [21480, 7, 7, 2.17], [688, 3, 7, 1.77], [12952, 21, 7, 2.82], [2821, 3, 10, 1.38], [11857, 1, 7, 2.29]]</t>
-  </si>
-  <si>
-    <t>[[248, 1, 7, 1.52], [1429, 2, 7, 1.31], [856, 1, 7, 1.03], [33, 1, 7, 1.16], [2879, 1, 7, 1.85], [3840, 1, 7, 2.71], [336, 15, 7, 1.22], [3430, 15, 7, 1.65], [19968, 29, 7, 1.25], [3896, 29, 7, 1.25], [5208, 3, 9, 1.72], [19970, 29, 7, 1.46], [2859, 15, 7, 1.85], [8356, 1, 7, 1.95], [7704, 2, 7, 2.05], [5005, 1, 7, 1.56], [5434, 1, 7, 1.13], [11961, 1, 7, 1.41], [74, 1, 7, 1.72], [1622, 1, 7, 1.51], [2608, 1, 7, 1.3], [3994, 1, 7, 3.13], [2161, 1, 7, 1.12], [3475, 2, 7, 1.4], [2774, 2, 7, 1.88], [1091, 1, 7, 1.48], [2935, 1, 7, 1.75], [2776, 2, 7, 0.89], [9209, 29, 7, 1.35], [1432, 2, 7, 1.38], [1243, 2, 7, 1.37], [2537, 1, 7, 2.58], [8926, 1, 7, 0.84], [11894, 2, 7, 1.89], [3079, 3, 7, 2.19], [9786, 1, 7, 1.24], [4030, 29, 7, 1.62], [11091, 1, 7, 1.12], [7707, 2, 7, 2.37], [24126, 3, 7, 1.97], [7706, 2, 7, 1.47], [20978, 1, 7, 3.32], [8896, 1, 7, 2.23], [999, 2, 7, 1.06], [4076, 3, 7, 1.41], [10181, 26, 8, 2.97], [380, 2, 7, 2.25], [11965, 1, 7, 1.19], [19965, 29, 7, 1.2], [995, 2, 7, 2.26], [1407, 2, 7, 1.06], [24256, 1, 7, 1.23], [9068, 1, 7, 1.53], [563, 2, 7, 1.66], [473, 1, 7, 1.84], [12059, 3, 7, 1.43], [1744, 1, 7, 1.36], [5646, 2, 7, 1.78], [332, 2, 7, 1.68], [3071, 3, 7, 1.93], [2727, 3, 7, 5.0], [9208, 29, 7, 1.04], [12663, 1, 7, 1.97], [3477, 2, 7, 2.06], [19581, 1, 7, 1.98], [506, 1, 7, 1.47], [23234, 29, 7, 1.97], [22318, 3, 7, 2.62], [23339, 3, 7, 1.5], [12647, 1, 7, 2.08], [12373, 1, 7, 2.27], [11611, 2, 7, 0.92], [5342, 1, 7, 1.35], [8360, 1, 7, 1.3], [3583, 3, 7, 1.84], [2728, 3, 7, 2.27], [11896, 2, 7, 1.76], [11092, 1, 7, 1.1], [11093, 1, 7, 1.03], [10825, 21, 13, 2.04], [3073, 3, 7, 1.68], [11184, 1, 7, 2.37], [7358, 3, 7, 1.54], [12887, 1, 7, 1.4], [9829, 3, 7, 2.11], [3024, 3, 7, 1.73], [12884, 1, 7, 3.0], [2194, 1, 7, 1.32], [13293, 3, 7, 2.5], [12897, 1, 7, 2.26], [1668, 1, 7, 1.43], [688, 3, 7, 2.21], [1742, 1, 7, 1.19], [3989, 3, 13, 1.81], [12883, 1, 7, 0.84], [524, 1, 7, 2.39], [23562, 1, 7, 1.77], [3581, 3, 7, 2.76], [3582, 3, 7, 2.72], [9207, 29, 7, 1.98], [13168, 1, 7, 1.31], [10838, 3, 7, 1.66], [12857, 1, 7, 3.37], [13857, 1, 13, 1.13], [21481, 7, 7, 3.2], [10580, 3, 7, 3.41], [23441, 1, 7, 3.32], [23563, 1, 7, 2.68], [12868, 1, 7, 2.52], [11899, 2, 7, 2.57], [12848, 1, 7, 2.4], [10466, 2, 7, 1.26], [11641, 1, 7, 1.42], [23445, 1, 7, 1.7], [9083, 3, 7, 1.39], [12029, 2, 7, 2.4]]</t>
-  </si>
-  <si>
-    <t>[[990, 2, 7, 3.36], [13250, 29, 7, 2.03], [12925, 1, 7, 1.08], [8089, 1, 36, 2.44], [7704, 2, 7, 1.43], [94, 4, 7, 1.63], [952, 4, 7, 3.28], [346, 1, 7, 5.0], [6097, 29, 7, 1.24], [1492, 1, 7, 1.76], [7887, 4, 7, 0.71], [345, 3, 7, 1.97], [9784, 1, 7, 1.66], [2421, 29, 7, 1.39], [11402, 1, 7, 1.48], [7708, 2, 7, 1.24], [5729, 2, 7, 2.25], [2050, 3, 8, 1.16], [66, 1, 7, 1.62], [9358, 1, 7, 1.71], [6629, 3, 7, 3.34], [409, 1, 7, 0.97], [9085, 29, 7, 1.3], [21269, 1, 7, 3.06], [3495, 3, 18, 1.41], [972, 1, 7, 1.14], [5736, 2, 7, 2.25], [5734, 2, 7, 3.09], [3016, 68, 7, 2.05], [448, 1, 7, 1.2], [5946, 1, 7, 2.26], [24258, 1, 7, 1.16], [11585, 29, 7, 2.0], [5208, 3, 11, 1.51], [12353, 1, 8, 4.51], [3980, 4, 7, 2.34], [3257, 4, 7, 2.11], [3575, 29, 7, 1.4], [13266, 29, 7, 1.57], [5209, 3, 8, 1.49], [11767, 1, 7, 1.98], [3337, 1, 7, 1.34], [9960, 3, 7, 1.23], [11678, 1, 7, 1.66], [1548, 1, 7, 2.05], [5585, 3, 7, 1.47], [12348, 1, 7, 2.94], [13025, 1, 7, 1.92], [12496, 3, 7, 0.71], [23276, 1, 7, 2.43], [12663, 1, 7, 1.56], [10148, 1, 7, 1.59], [20686, 1, 7, 2.97], [11510, 3, 8, 1.7], [2324, 2, 7, 1.9]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.16], [161, 1, 10, 1.37], [362, 2, 7, 0.92], [88, 10, 16, 0.98], [8674, 2, 7, 0.83], [11844, 2, 7, 1.46], [1409, 1, 7, 2.09], [12924, 1, 7, 1.16], [5976, 1, 7, 3.85], [23994, 29, 7, 1.7], [23992, 29, 7, 2.42], [7558, 3, 7, 1.67], [97, 11, 16, 1.7], [12925, 1, 7, 1.66], [3722, 29, 7, 2.14], [11587, 1, 7, 1.78], [13489, 1, 7, 1.27], [11091, 1, 7, 1.44], [9910, 29, 7, 1.18], [11402, 1, 7, 1.48], [11738, 2, 7, 1.97], [4032, 29, 7, 1.71], [2050, 3, 8, 1.43], [23660, 2, 7, 1.99], [24256, 1, 7, 1.36], [13488, 1, 7, 2.35], [380, 2, 7, 2.28], [7887, 4, 7, 2.03], [7573, 1, 7, 2.39], [247, 1, 7, 1.32], [2821, 3, 13, 1.3], [11411, 29, 7, 1.31], [12059, 3, 7, 2.0], [4253, 1, 7, 1.37], [24127, 3, 7, 1.63], [8659, 1, 7, 1.58], [1853, 1, 7, 2.01], [13036, 3, 8, 3.35], [332, 2, 7, 1.59], [3257, 4, 7, 2.11], [8355, 1, 7, 2.78], [1668, 1, 7, 3.04], [6266, 23, 20, 0.97], [11159, 1, 14, 2.67], [12010, 3, 7, 1.22], [11158, 1, 21, 1.56], [3386, 1, 7, 4.66], [9373, 5, 7, 1.6], [12663, 1, 7, 1.63], [8023, 1, 7, 1.74], [9374, 5, 7, 2.88], [10581, 3, 8, 2.03], [12058, 3, 7, 1.15]]</t>
-  </si>
-  <si>
-    <t>[[161, 1, 10, 2.52], [6098, 29, 7, 0.99], [12721, 2, 9, 2.42], [2422, 29, 7, 1.45], [3430, 1, 7, 1.68], [11887, 1, 7, 1.34], [8674, 2, 7, 0.96], [8676, 2, 7, 0.96], [146, 2, 7, 1.28], [1492, 1, 7, 1.71], [2776, 2, 7, 1.15], [414, 1, 7, 2.11], [8926, 1, 7, 1.21], [145, 2, 7, 1.2], [3577, 29, 7, 1.99], [2775, 2, 7, 1.94], [11687, 1, 7, 1.13], [2421, 29, 7, 2.31], [11886, 1, 7, 0.95], [1446, 2, 7, 4.36], [2057, 3, 7, 5.0], [21793, 1, 11, 3.05], [3016, 68, 7, 1.81], [10149, 3, 21, 1.66], [5812, 3, 9, 1.51], [201, 3, 7, 4.1], [409, 1, 7, 0.69], [11689, 1, 7, 0.95], [45, 2, 7, 2.95], [8085, 1, 7, 1.46], [5813, 3, 8, 1.39], [524, 1, 7, 2.06], [4253, 1, 7, 1.58], [410, 1, 7, 1.45], [1703, 2, 7, 2.1], [8939, 2, 7, 1.62], [1880, 4, 7, 1.54], [74, 1, 7, 2.99], [354, 2, 7, 1.39], [3610, 24, 7, 1.52], [7706, 2, 7, 1.77], [955, 2, 7, 1.53], [12345, 1, 7, 2.09], [24258, 1, 7, 0.72], [1055, 2, 7, 1.36], [11775, 1, 7, 4.27], [11215, 1, 7, 1.64], [3673, 2, 7, 2.6], [10581, 3, 8, 2.18], [12058, 3, 7, 1.37], [2726, 3, 8, 2.73], [8945, 3, 7, 1.28], [23341, 3, 7, 1.28], [2369, 3, 7, 1.64], [4032, 29, 7, 2.15], [7708, 2, 7, 1.22], [21697, 3, 7, 1.73], [22317, 3, 7, 1.33], [2368, 3, 7, 1.54], [23489, 3, 7, 1.25], [7705, 2, 7, 1.5], [7707, 2, 7, 1.28]]</t>
-  </si>
-  <si>
-    <t>[[145, 2, 7, 1.2], [947, 1, 7, 1.26], [6097, 29, 7, 1.24], [142, 2, 7, 1.88], [2422, 29, 7, 3.02], [6098, 29, 7, 1.2], [3430, 1, 7, 1.68], [8675, 2, 9, 1.47], [6496, 1, 7, 1.65], [336, 15, 7, 0.7], [412, 1, 7, 1.1], [8676, 2, 7, 1.49], [24723, 2, 12, 0.89], [8943, 1, 7, 1.46], [2726, 1, 10, 1.36], [414, 1, 7, 1.97], [5729, 2, 7, 0.92], [2054, 3, 7, 1.41], [8944, 3, 7, 1.33], [8926, 1, 7, 1.21], [66, 1, 7, 1.62], [2419, 29, 7, 2.1], [2188, 1, 7, 1.56], [823, 1, 7, 1.56], [20927, 1, 7, 3.08], [3891, 1, 7, 2.01], [11485, 1, 7, 1.61], [2774, 2, 7, 3.51], [19924, 2, 7, 2.03], [415, 1, 7, 1.02], [963, 1, 7, 1.8], [11402, 1, 7, 1.47], [11091, 1, 7, 1.65], [964, 15, 7, 0.98], [148, 1, 7, 1.86], [22317, 3, 7, 1.53], [1052, 2, 7, 1.23], [1548, 1, 7, 1.78], [24256, 1, 7, 1.9], [9087, 29, 7, 2.23], [9998, 29, 7, 2.0], [10124, 1, 7, 3.19], [11182, 1, 48, 2.25], [13041, 3, 7, 1.31], [5976, 1, 7, 2.19], [2335, 3, 7, 1.05], [20680, 1, 7, 1.55], [8754, 2, 7, 1.7], [12658, 1, 7, 1.6], [3338, 1, 7, 1.49], [11769, 1, 7, 2.75], [10407, 1, 7, 1.22], [186, 3, 12, 2.16], [8600, 1, 7, 1.35], [334, 2, 7, 1.52], [12870, 1, 7, 1.11], [7122, 3, 7, 1.34], [270, 3, 7, 2.0], [11585, 29, 7, 1.44], [8907, 29, 7, 2.04], [524, 1, 7, 3.43], [2743, 3, 7, 1.7], [11510, 3, 8, 1.86], [12656, 1, 7, 0.94], [1406, 2, 7, 1.01], [1683, 1, 7, 1.22], [11411, 29, 7, 2.12], [1619, 1, 7, 1.47], [1523, 1, 7, 1.41], [12010, 3, 7, 1.22], [1814, 2, 7, 1.37], [22318, 3, 7, 3.69], [3903, 14, 10, 1.34], [1853, 1, 7, 1.52], [4176, 4, 7, 2.32], [9374, 5, 7, 2.88], [3585, 3, 7, 2.1], [12030, 2, 7, 3.04], [11183, 1, 7, 1.71]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 8, 1.33], [23238, 29, 7, 1.54], [1446, 2, 7, 2.24], [7036, 1, 7, 0.84], [2424, 29, 7, 1.14], [417, 2, 7, 1.65], [6497, 1, 7, 1.81], [9910, 29, 7, 1.32], [24257, 1, 7, 1.25], [346, 1, 7, 1.98], [201, 3, 7, 1.34], [1700, 2, 7, 1.98], [12526, 2, 7, 1.69], [9, 1, 7, 0.75], [7084, 1, 15, 1.45], [12924, 1, 7, 1.32], [8106, 1, 7, 1.46], [10149, 3, 24, 1.66], [9081, 3, 13, 2.46], [823, 1, 7, 1.09], [5188, 1, 7, 1.11], [3670, 2, 7, 1.44], [416, 1, 7, 1.24], [24722, 2, 7, 2.36], [345, 3, 7, 1.22], [23234, 29, 7, 1.28], [13028, 3, 7, 2.56], [470, 1, 7, 0.82], [3016, 68, 7, 2.76], [11403, 1, 26, 1.26], [8926, 1, 7, 0.91], [415, 1, 7, 1.14], [8677, 3, 8, 2.29], [5208, 3, 7, 1.24], [13488, 1, 7, 1.73], [11954, 1, 7, 1.91], [7558, 3, 7, 1.17], [3495, 3, 16, 1.27], [2421, 29, 7, 2.32], [12229, 2, 7, 1.95], [19047, 3, 7, 1.95], [336, 15, 7, 1.83], [8599, 1, 7, 1.98], [9460, 1, 7, 2.83], [18, 1, 7, 0.96], [9288, 29, 7, 1.15], [12059, 3, 7, 1.26], [11711, 3, 7, 1.49], [13253, 29, 7, 1.36], [2695, 3, 7, 1.41], [7703, 2, 7, 1.13], [9828, 3, 7, 1.99], [24256, 1, 7, 1.52], [2335, 3, 7, 2.27], [5585, 3, 7, 1.53], [21700, 3, 7, 3.27], [10536, 3, 7, 2.15], [11967, 1, 7, 1.97], [21060, 1, 7, 1.58], [12234, 3, 7, 2.07], [14018, 3, 7, 4.44], [13283, 1, 7, 1.18], [10939, 2, 7, 1.76], [9945, 3, 7, 1.29], [11719, 1, 7, 2.04], [2495, 2, 7, 1.8], [21701, 3, 7, 2.38], [974, 3, 7, 1.38], [11610, 3, 7, 1.71], [308, 1, 7, 1.72], [8274, 3, 7, 1.48], [1744, 1, 7, 1.65], [5853, 1, 7, 1.13], [3583, 3, 7, 1.46], [10941, 2, 7, 1.55], [21703, 3, 7, 2.24], [1880, 4, 7, 1.28], [12058, 3, 7, 1.26], [12647, 1, 7, 2.09], [12235, 3, 7, 2.07], [8897, 3, 7, 1.36], [3462, 2, 7, 0.98], [22287, 1, 7, 1.49], [21482, 7, 7, 2.91], [5164, 1, 7, 1.78], [1619, 1, 7, 1.21], [1601, 68, 7, 1.17], [12237, 3, 7, 1.72], [1598, 68, 7, 2.16], [1602, 68, 7, 2.73], [2369, 3, 7, 1.34], [3899, 3, 7, 1.34], [19583, 3, 7, 1.91], [3585, 3, 8, 1.33], [3582, 3, 7, 1.29], [3581, 3, 8, 1.55], [12238, 3, 7, 0.87], [5452, 1, 7, 1.22]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 7, 1.97], [990, 2, 7, 1.11], [151, 1, 7, 1.43], [6097, 29, 7, 0.95], [248, 1, 7, 1.25], [6098, 29, 7, 1.27], [1124, 2, 9, 0.88], [3478, 2, 7, 1.38], [148, 1, 7, 1.31], [470, 1, 7, 1.02], [94, 4, 7, 1.11], [345, 1, 7, 3.07], [9507, 3, 7, 1.3], [8650, 2, 7, 1.73], [10530, 29, 7, 1.77], [415, 1, 7, 1.25], [8677, 3, 9, 2.48], [1703, 2, 7, 1.53], [8676, 2, 7, 2.44], [506, 1, 7, 1.91], [110, 4, 7, 1.16], [168, 3, 7, 1.2], [24257, 1, 7, 1.35], [3900, 3, 7, 0.89], [2726, 3, 7, 2.78], [991, 2, 7, 2.62], [8945, 1, 7, 2.69], [5435, 1, 7, 1.22], [9358, 1, 7, 2.05], [2105, 3, 12, 1.52], [8157, 29, 7, 1.71], [11967, 1, 7, 1.91], [9085, 29, 7, 2.04], [8557, 3, 7, 1.65], [11510, 3, 9, 2.35], [18964, 1, 7, 1.17], [11710, 1, 7, 1.83], [13489, 1, 7, 1.29], [39, 1, 7, 1.19], [8690, 10, 8, 2.5], [13034, 3, 9, 1.71], [6792, 2, 7, 1.47], [9778, 1, 7, 1.3], [11399, 2, 7, 2.07], [7007, 1, 7, 0.93], [515, 24, 7, 3.76], [2438, 1, 7, 1.78], [5642, 3, 7, 2.57], [2730, 3, 7, 1.03], [3670, 2, 7, 3.33], [5584, 3, 7, 2.29], [6575, 3, 7, 1.45], [12722, 2, 7, 1.4], [20208, 3, 7, 2.14], [3059, 3, 7, 1.09], [23339, 3, 7, 1.32], [8943, 3, 7, 1.07], [23336, 3, 7, 5.0], [955, 2, 7, 3.05], [5084, 2, 7, 1.01], [2528, 29, 7, 1.58], [3576, 29, 7, 1.4], [11402, 1, 7, 1.69], [10536, 3, 7, 2.23], [4222, 4, 7, 2.41], [1706, 2, 7, 2.21], [3577, 29, 7, 1.71], [24723, 2, 7, 3.98], [330, 3, 7, 2.71], [5209, 3, 7, 1.87], [24256, 1, 7, 0.71], [9779, 1, 7, 1.21], [9781, 1, 7, 1.58], [3278, 29, 7, 1.72], [12304, 1, 7, 1.32], [169, 4, 7, 1.21], [11965, 1, 7, 0.68], [2234, 1, 7, 2.33], [10382, 3, 7, 1.33], [3575, 29, 7, 1.58], [6966, 3, 7, 2.24], [6424, 3, 7, 1.83], [11503, 1, 7, 2.29], [9780, 1, 7, 1.57], [11625, 29, 7, 2.22], [11677, 1, 7, 2.5], [11080, 3, 7, 2.02], [10580, 3, 7, 2.31], [8686, 3, 7, 2.7], [11059, 3, 7, 4.17], [2324, 2, 25, 1.59], [11868, 3, 7, 0.98], [19971, 3, 7, 1.88], [10176, 29, 7, 1.23], [560, 1, 7, 1.55], [1765, 25, 7, 2.04], [5736, 2, 7, 4.13], [10599, 3, 7, 1.42], [23335, 14, 9, 1.32], [7362, 3, 7, 1.5], [9125, 1, 7, 0.95], [209, 3, 7, 1.28], [11587, 1, 12, 1.23], [11467, 1, 7, 2.43], [10531, 14, 13, 1.4], [10719, 29, 12, 1.85], [13467, 1, 7, 2.71], [2367, 3, 7, 1.37], [10170, 1, 7, 1.73], [8637, 3, 7, 2.08], [23435, 1, 7, 1.52], [1813, 2, 7, 1.91], [12901, 3, 7, 2.7], [358, 1, 7, 0.86], [12513, 1, 7, 2.65], [10598, 3, 7, 1.48], [8963, 1, 7, 2.75], [22990, 1, 7, 2.98], [23684, 1, 7, 2.98], [9182, 1, 7, 1.83], [12903, 3, 7, 1.65], [10468, 10, 21, 0.99], [10453, 10, 8, 1.22], [13199, 23, 7, 3.36], [13183, 1, 7, 1.44], [22884, 3, 7, 2.84], [22631, 3, 7, 1.01], [3585, 3, 7, 1.57], [13182, 1, 7, 2.23], [10722, 2, 7, 1.76], [2946, 3, 7, 1.91], [688, 3, 7, 3.37], [3582, 3, 7, 3.25], [806, 3, 7, 1.16], [2168, 3, 7, 1.04], [12905, 3, 7, 1.62], [12920, 3, 7, 2.15], [936, 3, 8, 1.25], [11422, 3, 7, 1.34], [12904, 3, 7, 2.68], [23434, 1, 7, 2.4], [23607, 3, 7, 4.08], [12238, 3, 7, 2.4], [9250, 3, 8, 2.71], [23683, 1, 7, 2.45], [13860, 1, 7, 1.3], [13858, 1, 7, 3.33], [13857, 1, 7, 1.83], [22908, 3, 12, 1.9], [11944, 3, 8, 1.74], [23437, 1, 7, 1.32], [11333, 7, 11, 1.1], [805, 3, 7, 1.24], [2989, 3, 7, 2.28], [20315, 3, 7, 3.57], [9251, 3, 8, 2.43], [11899, 2, 7, 1.97], [10465, 2, 8, 0.93], [2168, 3, 317, 1.36], [936, 3, 632, 1.36], [11422, 3, 202, 1.36], [13860, 1, 229, 1.36], [23437, 1, 233, 1.36], [11333, 7, 1146, 1.36], [805, 3, 273, 1.36], [10465, 2, 80, 1.36]]</t>
+    <t>27/01/2026 12:07</t>
+  </si>
+  <si>
+    <t>27/01/2026 23:57</t>
+  </si>
+  <si>
+    <t>[[130, 1, 4, 0.46], [8648, 2, 4, 0.68], [8938, 2, 4, 0.71], [823, 1, 4, 0.65], [94, 4, 4, 0.39], [1091, 1, 4, 1.28], [7036, 1, 4, 0.39], [7005, 1, 4, 0.53], [1006, 2, 4, 0.74], [10149, 3, 13, 0.64], [35, 1, 4, 0.63], [8676, 2, 4, 0.78], [5513, 2, 4, 0.77], [8650, 2, 4, 1.24], [22554, 10, 9, 0.84], [2879, 1, 4, 0.4], [11116, 1, 4, 0.67], [2878, 1, 4, 0.87], [34, 1, 4, 0.38], [11150, 1, 4, 0.78], [39, 1, 4, 0.92], [7705, 2, 4, 0.81], [8945, 1, 4, 0.51], [997, 2, 4, 0.41], [9910, 29, 4, 0.7], [7704, 2, 4, 0.83], [8690, 1, 4, 1.44], [3994, 1, 4, 0.82], [3840, 1, 4, 0.38], [435, 2, 4, 0.77], [23380, 29, 4, 0.85], [3049, 3, 4, 1.36], [1409, 15, 4, 0.47], [4232, 29, 4, 0.97], [3982, 3, 9, 0.75], [8557, 3, 4, 0.52], [72, 1, 4, 0.55], [24126, 3, 4, 1.03], [4076, 3, 4, 2.65], [2105, 3, 6, 0.7], [6629, 3, 4, 1.57], [7708, 2, 4, 0.61], [10275, 3, 4, 2.57], [2735, 3, 4, 1.14], [3047, 3, 4, 0.4], [9778, 1, 4, 0.59], [24261, 1, 4, 1.39], [23961, 3, 4, 1.33], [24567, 1, 4, 0.68], [8659, 1, 4, 1.02], [247, 1, 4, 1.13], [2193, 1, 4, 0.63], [19582, 1, 4, 0.52], [1602, 68, 4, 0.35], [11181, 1, 4, 1.06], [12647, 1, 4, 0.68], [9996, 80, 4, 0.54], [13488, 1, 4, 0.81], [13482, 1, 4, 1.23], [12419, 1, 4, 1.51], [8121, 3, 4, 1.23], [6966, 3, 4, 0.64], [11718, 3, 4, 0.41], [11891, 3, 5, 0.58], [12003, 1, 4, 0.53], [13858, 1, 4, 1.0], [22922, 1, 4, 1.03], [13180, 1, 4, 1.3], [13164, 1, 4, 0.81], [11999, 7, 5, 0.79], [12335, 2, 4, 0.56], [23421, 1, 4, 1.35], [23422, 1, 4, 1.35], [23436, 1, 4, 1.22], [12920, 3, 4, 0.97], [405, 3, 5, 0.57], [458, 3, 6, 1.35], [23282, 3, 5, 0.74], [21478, 7, 5, 0.65], [130, 1, 64, 1.49], [823, 1, 43, 1.49], [94, 4, 129, 1.49], [7036, 1, 139, 1.49], [7005, 1, 85, 1.49], [35, 1, 121, 1.49], [5513, 2, 85, 1.49], [2879, 1, 39, 1.49], [11116, 1, 84, 1.49], [34, 1, 121, 1.49], [8945, 1, 89, 1.43], [997, 2, 263, 1.49], [9910, 29, 39, 1.49], [3840, 1, 186, 1.49], [435, 2, 107, 1.49], [1409, 15, 60, 1.49], [8557, 3, 220, 1.49], [2105, 3, 317, 1.49], [7708, 2, 187, 1.49], [3047, 3, 288, 1.49], [9778, 1, 50, 1.49], [1602, 68, 162, 1.49], [9996, 80, 144, 1.49], [6966, 3, 288, 1.49], [11891, 3, 455, 1.49], [12335, 2, 323, 1.49], [405, 3, 626, 1.49], [23282, 3, 597, 1.49]]</t>
+  </si>
+  <si>
+    <t>[[5165, 1, 4, 0.8], [305, 2, 4, 0.36], [143, 2, 4, 0.75], [7036, 1, 4, 1.51], [144, 2, 4, 0.54], [84, 2, 4, 0.91], [3893, 1, 4, 0.7], [3891, 1, 4, 0.42], [6936, 2, 4, 1.72], [12924, 1, 4, 0.39], [12212, 29, 4, 0.91], [39, 1, 4, 0.75], [346, 1, 4, 0.51], [1703, 2, 4, 1.03], [2054, 3, 4, 1.0], [10149, 3, 10, 0.64], [2859, 15, 4, 0.55], [4030, 29, 4, 0.5], [826, 1, 4, 1.09], [13023, 3, 4, 0.5], [4076, 3, 4, 2.33], [21060, 1, 4, 1.02], [8675, 2, 4, 0.49], [19583, 1, 4, 1.03], [11586, 1, 4, 1.25], [13033, 3, 4, 1.49], [2323, 2, 4, 0.58], [8927, 10, 7, 0.5], [5165, 1, 54, 1.7], [305, 2, 167, 1.7], [143, 2, 172, 1.7], [144, 2, 173, 1.7], [3891, 1, 126, 1.7], [12924, 1, 58, 1.7], [39, 1, 120, 1.7], [346, 1, 165, 1.7], [2859, 15, 78, 1.7], [4030, 29, 41, 1.7], [13023, 3, 648, 1.7], [8675, 2, 314, 1.7], [2323, 2, 88, 1.59], [8927, 10, 895, 1.7]]</t>
+  </si>
+  <si>
+    <t>[[1429, 2, 4, 0.95], [8648, 2, 4, 1.34], [11685, 2, 4, 1.15], [417, 2, 4, 0.74], [996, 2, 4, 0.58], [2775, 2, 4, 1.34], [7704, 2, 4, 0.61], [345, 3, 4, 2.37], [110, 4, 4, 0.53], [3495, 3, 13, 0.4], [12535, 2, 4, 0.83], [20486, 1, 4, 1.75], [13041, 3, 4, 0.77], [2406, 29, 4, 2.2], [5646, 2, 4, 0.38], [12418, 1, 4, 1.4], [3379, 3, 4, 0.46], [13180, 1, 4, 0.36], [21269, 3, 4, 1.59], [3585, 3, 4, 0.52], [13293, 3, 4, 0.69], [20956, 1, 4, 3.1], [12335, 2, 4, 0.7], [12882, 1, 4, 2.96], [23563, 1, 4, 1.15], [23962, 3, 4, 1.11], [21701, 3, 4, 0.43], [13884, 1, 4, 0.38], [5644, 3, 4, 0.79], [12573, 1, 4, 0.96], [2989, 3, 5, 0.97], [5007, 1, 4, 0.57], [12475, 3, 4, 0.67], [8927, 10, 9, 0.73], [417, 2, 177, 1.6], [996, 2, 276, 1.6], [7704, 2, 205, 1.6], [110, 4, 238, 1.6], [3495, 3, 1118, 1.6], [13041, 3, 176, 1.6], [3379, 3, 88, 1.6], [3585, 3, 231, 1.6], [13293, 3, 331, 1.6], [12335, 2, 346, 1.6], [13884, 1, 252, 1.6], [5007, 1, 151, 1.6], [12475, 3, 678, 1.6], [8927, 10, 938, 1.6]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 0.91], [75, 2, 4, 0.39], [83, 2, 4, 0.43], [431, 2, 5, 0.7], [5005, 1, 4, 0.96], [5081, 2, 4, 3.44], [9760, 29, 4, 0.92], [60, 1, 4, 0.51], [24722, 2, 4, 1.61], [410, 1, 4, 0.59], [9835, 2, 4, 0.6], [5660, 2, 4, 1.66], [149, 2, 4, 1.03], [2859, 15, 4, 0.55], [8674, 2, 4, 0.58], [11091, 1, 4, 0.72], [996, 2, 4, 0.48], [95, 3, 13, 0.93], [7573, 1, 4, 1.73], [3049, 3, 4, 0.35], [105, 3, 4, 0.53], [17, 1, 4, 0.67], [1234, 1, 4, 0.9], [80, 1, 4, 0.65], [8157, 29, 4, 0.67], [2539, 29, 4, 0.53], [6575, 3, 4, 0.96], [3610, 24, 4, 0.8], [955, 2, 4, 0.89], [332, 2, 4, 1.33], [344, 2, 4, 0.88], [5644, 3, 4, 1.11], [2326, 2, 4, 1.56], [11587, 1, 6, 1.33], [9608, 1, 4, 1.02], [10397, 3, 4, 1.11], [23339, 3, 4, 0.69], [474, 1, 4, 0.71], [5811, 3, 4, 0.39], [24127, 3, 4, 0.57], [11093, 1, 4, 0.62], [6952, 1, 4, 0.61], [10398, 2, 4, 0.37], [1801, 1, 4, 0.88], [4253, 1, 4, 1.02], [9186, 29, 4, 0.35], [9529, 1, 4, 0.78], [8897, 3, 4, 0.96], [23489, 3, 4, 0.88], [11092, 1, 4, 0.73], [21697, 3, 4, 1.2], [6805, 1, 4, 0.63], [19582, 1, 4, 0.81], [8754, 2, 5, 0.83], [8085, 1, 4, 1.16], [8234, 1, 4, 1.27], [5722, 2, 4, 0.85], [3549, 29, 4, 1.03], [9612, 12, 4, 0.61], [13482, 1, 4, 0.98], [13247, 29, 4, 0.97], [406, 3, 6, 3.78], [10507, 2, 4, 0.44], [2730, 3, 4, 0.44], [24727, 2, 4, 0.4], [21701, 3, 4, 1.32], [11161, 1, 4, 0.76], [11868, 3, 4, 0.38], [1432, 2, 4, 0.4], [9380, 1, 4, 1.04], [10594, 3, 4, 0.68], [12511, 1, 4, 0.75], [3583, 3, 4, 0.67], [3337, 1, 4, 0.56], [11290, 2, 4, 0.9], [13170, 1, 4, 1.55], [1575, 1, 4, 0.76], [3024, 3, 4, 1.06], [21626, 1, 4, 0.76], [2946, 3, 4, 0.52], [13879, 1, 4, 0.85], [2324, 2, 6, 0.86], [3975, 4, 4, 1.06], [23441, 1, 4, 1.17], [12635, 2, 4, 0.54], [13270, 29, 4, 1.01], [12889, 1, 4, 0.87], [963, 3, 4, 0.99], [13182, 1, 4, 0.75], [408, 3, 5, 1.67], [5517, 1, 4, 0.63], [13177, 1, 4, 0.48], [13857, 1, 4, 0.74], [13858, 1, 4, 1.0], [9288, 29, 4, 1.05], [13300, 3, 4, 1.3], [75, 2, 161, 1.37], [83, 2, 60, 1.37], [60, 1, 37, 1.37], [410, 1, 114, 1.37], [9835, 2, 177, 1.37], [2859, 15, 79, 1.37], [996, 2, 267, 1.37], [3049, 3, 151, 1.37], [80, 1, 53, 1.37], [23339, 3, 207, 1.37], [5811, 3, 672, 1.37], [11093, 1, 86, 1.37], [10398, 2, 158, 1.37], [9612, 12, 83, 1.37], [10507, 2, 81, 1.37], [2730, 3, 96, 1.37], [24727, 2, 71, 1.37], [1432, 2, 35, 1.37], [10594, 3, 149, 1.37], [12635, 2, 94, 1.37], [5517, 1, 91, 1.37], [13177, 1, 348, 1.37]]</t>
+  </si>
+  <si>
+    <t>[[11404, 2, 4, 0.57], [3891, 1, 4, 0.42], [143, 2, 4, 0.75], [9, 1, 4, 0.53], [141, 2, 4, 1.58], [145, 2, 4, 0.83], [11091, 1, 4, 1.9], [590, 15, 4, 0.5], [336, 15, 4, 0.94], [24722, 2, 4, 1.76], [2859, 15, 4, 0.55], [10410, 1, 4, 0.36], [5733, 2, 4, 1.03], [380, 2, 4, 0.53], [11770, 1, 4, 0.43], [8058, 1, 4, 1.12], [19583, 1, 4, 1.03], [942, 3, 4, 1.05], [13034, 3, 4, 0.64], [13884, 1, 4, 2.69], [23439, 1, 4, 0.49], [11586, 1, 4, 1.25], [23443, 1, 4, 0.59], [23438, 1, 4, 1.11], [12238, 3, 4, 1.46], [12889, 1, 4, 0.96], [11868, 3, 4, 1.0], [11404, 2, 123, 1.7], [3891, 1, 126, 1.7], [143, 2, 172, 1.7], [9, 1, 38, 1.7], [145, 2, 172, 1.7], [590, 15, 107, 1.7], [2859, 15, 78, 1.7], [10410, 1, 105, 1.7], [380, 2, 46, 1.59], [11770, 1, 235, 1.7], [23439, 1, 379, 1.7], [23443, 1, 381, 1.7]]</t>
+  </si>
+  <si>
+    <t>[[1429, 2, 4, 0.95], [5946, 1, 4, 0.38], [13028, 3, 4, 0.88], [417, 2, 4, 0.74], [9784, 1, 4, 0.64], [13023, 3, 5, 1.37], [10780, 10, 4, 1.9], [8943, 3, 4, 1.32], [22922, 3, 4, 0.51], [13171, 1, 4, 0.63], [5007, 1, 4, 0.57], [13289, 1, 4, 1.11], [23562, 1, 4, 3.53], [13167, 1, 4, 0.74], [13884, 1, 4, 0.38], [13178, 1, 4, 1.33], [23563, 1, 4, 1.15], [12862, 1, 4, 2.0], [11738, 2, 4, 0.41], [5946, 1, 132, 1.6], [417, 2, 177, 1.6], [9784, 1, 82, 1.6], [13171, 1, 247, 1.6], [5007, 1, 151, 1.6], [13167, 1, 248, 1.6], [13884, 1, 252, 1.6], [11738, 2, 65, 1.6]]</t>
+  </si>
+  <si>
+    <t>[[8650, 2, 4, 2.0], [2424, 29, 4, 0.76], [11838, 2, 4, 0.65], [21793, 1, 5, 0.61], [2859, 15, 4, 0.55], [6098, 29, 4, 0.39], [3893, 1, 4, 1.02], [5811, 3, 5, 1.16], [23961, 1, 4, 1.25], [2424, 29, 40, 1.81], [11838, 2, 299, 1.81], [21793, 1, 282, 1.81], [2859, 15, 84, 1.81], [6098, 29, 45, 1.81]]</t>
+  </si>
+  <si>
+    <t>[[2912, 1, 4, 0.67], [361, 2, 4, 0.53], [24722, 2, 4, 1.11], [2422, 29, 4, 0.8], [2859, 1, 4, 0.55], [4232, 29, 4, 0.45], [3670, 2, 4, 2.55], [964, 15, 4, 0.38], [7885, 4, 4, 0.69], [380, 2, 4, 0.47], [2912, 1, 58, 1.81], [361, 2, 182, 1.81], [2422, 29, 44, 1.81], [2859, 1, 21, 1.81], [4232, 29, 37, 1.81], [7885, 4, 161, 1.81]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.89], [361, 2, 4, 0.53], [417, 2, 4, 0.53], [947, 1, 4, 0.5], [142, 2, 4, 0.98], [6098, 29, 4, 0.45], [11887, 1, 4, 0.66], [9784, 1, 4, 0.56], [1139, 3, 4, 0.79], [20680, 1, 4, 0.5], [973, 1, 4, 1.03], [141, 2, 182, 1.81], [361, 2, 182, 1.81], [417, 2, 182, 1.81], [947, 1, 12, 1.81], [6098, 29, 44, 1.81], [11887, 1, 28, 1.81], [9784, 1, 86, 1.81], [1139, 3, 248, 1.81], [20680, 1, 716, 1.81]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 4, 0.46], [141, 2, 4, 0.89], [362, 2, 4, 0.48], [2422, 29, 4, 0.68], [6158, 2, 5, 0.9], [6630, 3, 4, 1.37], [192, 3, 11, 1.27], [590, 15, 4, 0.42], [5729, 2, 4, 1.29], [7005, 1, 4, 0.59], [307, 2, 4, 1.3], [2057, 3, 4, 0.4], [2055, 3, 4, 1.03], [964, 15, 4, 0.76], [5746, 2, 5, 1.57], [424, 1, 4, 0.84], [10406, 1, 4, 0.57], [12349, 1, 4, 1.11], [2335, 3, 4, 0.52], [10407, 1, 4, 0.63], [825, 1, 4, 0.59], [12379, 1, 4, 1.15], [12347, 1, 4, 1.03], [141, 2, 182, 1.81], [362, 2, 165, 1.81], [2422, 29, 44, 1.81], [590, 15, 115, 1.81], [7005, 1, 92, 1.81], [2057, 3, 546, 1.81], [964, 15, 132, 1.81], [424, 1, 27, 1.81], [10406, 1, 164, 1.81], [2335, 3, 231, 1.81], [825, 1, 102, 1.81]]</t>
+  </si>
+  <si>
+    <t>[[362, 2, 4, 0.48], [23238, 29, 4, 0.72], [2328, 2, 4, 1.01], [1446, 2, 4, 1.09], [11683, 2, 10, 0.83], [9289, 29, 4, 1.07], [7887, 4, 4, 0.72], [3, 2, 4, 0.4], [336, 15, 4, 0.95], [3379, 3, 4, 1.08], [2728, 3, 4, 1.7], [13283, 1, 4, 0.48], [21701, 3, 4, 0.42], [13281, 1, 4, 0.55], [19582, 3, 4, 0.4], [362, 2, 164, 1.78], [23238, 29, 43, 1.78], [7887, 4, 160, 1.78], [3, 2, 136, 1.78], [13283, 1, 373, 1.78], [21701, 3, 343, 1.78], [13281, 1, 378, 1.78], [19582, 3, 715, 1.78]]</t>
+  </si>
+  <si>
+    <t>[[9760, 29, 4, 0.92], [410, 1, 4, 0.59], [11116, 1, 4, 0.72], [8674, 2, 4, 0.58], [2879, 1, 4, 1.34], [6540, 29, 5, 0.96], [9069, 1, 4, 0.46], [2105, 3, 7, 0.5], [11091, 1, 4, 0.72], [473, 1, 4, 0.42], [17, 1, 4, 0.67], [3477, 2, 4, 1.39], [4232, 29, 5, 1.25], [5811, 3, 4, 0.39], [2859, 15, 4, 0.55], [11092, 1, 4, 0.73], [9945, 3, 4, 0.82], [11090, 1, 4, 0.8], [11677, 1, 4, 1.48], [8686, 3, 4, 0.84], [3583, 3, 4, 0.67], [11586, 1, 5, 1.03], [10580, 3, 4, 1.02], [10521, 3, 4, 1.85], [13482, 1, 4, 0.98], [23335, 14, 5, 1.0], [12586, 3, 6, 1.66], [21012, 2, 5, 0.99], [13166, 1, 4, 1.13], [3585, 3, 4, 0.76], [13167, 1, 4, 2.04], [13182, 1, 4, 0.75], [8600, 1, 4, 0.8], [23422, 1, 4, 1.4], [12882, 1, 4, 1.52], [13172, 1, 4, 2.17], [23434, 1, 4, 0.49], [11855, 1, 4, 1.36], [9083, 3, 5, 1.64], [23437, 1, 4, 0.43], [410, 1, 114, 1.37], [9069, 1, 137, 1.37], [2105, 3, 326, 1.37], [473, 1, 72, 1.37], [5811, 3, 672, 1.37], [2859, 15, 79, 1.37], [23434, 1, 231, 1.37], [23437, 1, 231, 1.37]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 7, 1.11], [8648, 2, 7, 1.53], [8938, 2, 7, 1.83], [823, 1, 7, 1.29], [94, 4, 7, 1.13], [1091, 1, 7, 2.47], [7036, 1, 7, 1.3], [7005, 1, 7, 1.05], [1006, 2, 7, 1.67], [10149, 3, 21, 1.66], [35, 1, 7, 1.21], [8676, 2, 7, 1.5], [5513, 2, 7, 1.48], [8650, 2, 7, 2.54], [22554, 10, 15, 1.62], [2879, 1, 7, 0.81], [11116, 1, 7, 1.34], [2878, 1, 7, 1.67], [34, 1, 7, 1.03], [11150, 1, 7, 1.5], [39, 1, 7, 1.76], [7705, 2, 7, 1.57], [8945, 1, 7, 0.98], [997, 2, 7, 1.32], [9910, 29, 7, 1.41], [7704, 2, 7, 1.6], [8690, 1, 7, 2.77], [3994, 1, 7, 1.58], [3840, 1, 7, 0.73], [435, 2, 7, 1.48], [23380, 29, 7, 1.63], [3049, 3, 7, 2.62], [1409, 15, 7, 1.24], [4232, 29, 7, 2.04], [3982, 3, 17, 1.56], [8557, 3, 7, 1.34], [72, 1, 7, 1.23], [24126, 3, 7, 2.02], [4076, 3, 7, 5.0], [2105, 3, 10, 1.35], [6629, 3, 7, 3.54], [7708, 2, 7, 1.17], [10275, 3, 7, 4.98], [2735, 3, 7, 2.19], [3047, 3, 7, 0.91], [9778, 1, 7, 1.17], [24261, 1, 7, 2.73], [23961, 3, 7, 2.63], [24567, 1, 7, 1.54], [8659, 1, 7, 2.29], [247, 1, 7, 2.25], [2193, 1, 11, 1.89], [19582, 1, 7, 1.55], [1602, 68, 7, 0.67], [11181, 1, 7, 2.2], [12647, 1, 7, 2.63], [9996, 80, 7, 1.05], [13488, 1, 7, 1.62], [13482, 1, 7, 2.39], [12419, 1, 7, 3.06], [8121, 3, 7, 2.36], [6966, 3, 7, 1.23], [11718, 3, 7, 2.14], [11891, 3, 8, 1.22], [12003, 1, 7, 1.5], [13858, 1, 7, 1.92], [22922, 1, 7, 1.98], [13180, 1, 7, 2.96], [13164, 1, 7, 2.44], [11999, 7, 8, 1.53], [12335, 2, 7, 1.14], [23421, 1, 7, 2.6], [23422, 1, 7, 2.6], [23436, 1, 7, 2.36], [12920, 3, 7, 2.08], [405, 3, 8, 1.01], [458, 3, 10, 2.93], [23282, 3, 8, 1.3], [21478, 7, 8, 1.44]]</t>
+  </si>
+  <si>
+    <t>[[5165, 1, 7, 1.59], [305, 2, 7, 0.69], [143, 2, 7, 1.54], [7036, 1, 7, 2.97], [144, 2, 7, 1.04], [84, 2, 7, 3.41], [3893, 1, 7, 1.8], [3891, 1, 7, 1.28], [6936, 2, 7, 3.33], [12924, 1, 7, 1.14], [12212, 29, 7, 1.85], [39, 1, 7, 1.45], [346, 1, 7, 1.64], [1703, 2, 7, 1.98], [2054, 3, 7, 1.92], [10149, 3, 17, 1.66], [2859, 15, 7, 1.07], [4030, 29, 7, 1.19], [826, 1, 7, 2.85], [13023, 3, 7, 1.35], [4076, 3, 7, 4.84], [21060, 1, 7, 1.97], [8675, 2, 7, 1.02], [19583, 1, 7, 1.98], [11586, 1, 7, 2.54], [13033, 3, 7, 3.78], [2323, 2, 7, 1.11], [8927, 10, 12, 1.28]]</t>
+  </si>
+  <si>
+    <t>[[1429, 2, 7, 1.84], [8648, 2, 7, 2.65], [11685, 2, 9, 2.83], [417, 2, 7, 1.42], [996, 2, 7, 1.29], [2775, 2, 7, 2.57], [7704, 2, 7, 1.32], [345, 3, 7, 4.57], [110, 4, 7, 1.1], [3495, 3, 21, 0.93], [12535, 2, 7, 1.62], [20486, 1, 7, 3.37], [13041, 3, 7, 1.49], [2406, 29, 7, 4.23], [5646, 2, 7, 1.78], [12418, 1, 7, 2.69], [3379, 3, 7, 0.89], [13180, 1, 7, 1.89], [21269, 3, 7, 3.06], [3585, 3, 7, 1.14], [13293, 3, 7, 1.47], [20956, 1, 7, 5.0], [12335, 2, 7, 1.52], [12882, 1, 7, 5.0], [23563, 1, 7, 4.09], [23962, 3, 7, 2.51], [21701, 3, 7, 1.67], [13884, 1, 7, 0.72], [5644, 3, 7, 2.45], [12573, 1, 7, 1.9], [2989, 3, 8, 1.83], [5007, 1, 7, 1.33], [12475, 3, 7, 1.35], [8927, 10, 15, 1.34]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 9, 2.26], [75, 2, 7, 1.14], [83, 2, 7, 1.29], [431, 2, 13, 2.0], [5005, 1, 7, 1.85], [5081, 2, 7, 5.0], [9760, 29, 7, 1.77], [60, 1, 7, 0.98], [24722, 2, 7, 3.1], [410, 1, 7, 1.27], [9835, 2, 7, 1.19], [5660, 2, 7, 3.74], [149, 2, 7, 2.04], [2859, 15, 7, 1.07], [8674, 2, 7, 1.96], [11091, 1, 7, 1.44], [996, 2, 7, 1.23], [95, 3, 21, 2.13], [7573, 1, 7, 3.33], [3049, 3, 7, 0.67], [105, 3, 7, 2.78], [17, 1, 7, 1.3], [1234, 1, 7, 2.14], [80, 1, 7, 1.28], [8157, 29, 7, 1.6], [2539, 29, 7, 1.54], [6575, 3, 7, 1.84], [3610, 24, 7, 1.54], [955, 2, 7, 1.73], [332, 2, 7, 2.56], [344, 2, 7, 1.77], [5644, 3, 7, 2.45], [2326, 2, 7, 3.01], [11587, 1, 12, 2.93], [9608, 1, 7, 1.97], [10397, 3, 7, 2.15], [23339, 3, 7, 1.33], [474, 1, 7, 1.39], [5811, 3, 7, 0.79], [24127, 3, 7, 1.61], [11093, 1, 7, 1.31], [6952, 1, 7, 1.73], [10398, 2, 7, 0.81], [1801, 1, 7, 2.09], [4253, 1, 7, 1.97], [9186, 29, 7, 1.43], [9529, 1, 7, 1.58], [8897, 3, 7, 1.84], [23489, 3, 7, 1.71], [11092, 1, 7, 1.45], [21697, 3, 7, 2.43], [6805, 1, 7, 1.38], [19582, 1, 7, 1.57], [8754, 2, 8, 1.46], [8085, 1, 7, 2.27], [8234, 1, 7, 2.55], [5722, 2, 7, 2.01], [3549, 29, 7, 1.98], [9612, 12, 7, 1.23], [13482, 1, 7, 2.94], [13247, 29, 7, 1.92], [406, 3, 10, 5.0], [10507, 2, 7, 0.85], [2730, 3, 7, 1.03], [24727, 2, 7, 1.34], [21701, 3, 7, 2.71], [11161, 1, 7, 1.53], [11868, 3, 7, 1.5], [1432, 2, 7, 0.85], [9380, 1, 7, 2.48], [10594, 3, 7, 1.35], [12511, 1, 7, 1.44], [3583, 3, 7, 1.5], [3337, 1, 7, 1.91], [11290, 2, 7, 1.81], [13170, 1, 7, 2.98], [1575, 1, 7, 1.46], [3024, 3, 7, 2.2], [21626, 1, 7, 3.34], [2946, 3, 7, 2.74], [13879, 1, 7, 1.63], [2324, 2, 10, 1.73], [3975, 4, 7, 2.2], [23441, 1, 7, 2.28], [12635, 2, 7, 1.09], [13270, 29, 7, 1.94], [12889, 1, 7, 2.16], [963, 3, 7, 1.92], [13182, 1, 7, 1.49], [408, 3, 8, 2.94], [5517, 1, 7, 1.21], [13177, 1, 7, 1.34], [13857, 1, 7, 1.42], [13858, 1, 7, 1.92], [9288, 29, 7, 2.02], [13300, 3, 7, 2.54]]</t>
+  </si>
+  <si>
+    <t>[[11404, 2, 7, 1.14], [3891, 1, 7, 1.28], [143, 2, 7, 1.54], [9, 1, 7, 1.02], [141, 2, 7, 3.04], [145, 2, 7, 1.6], [11091, 1, 7, 3.66], [590, 15, 7, 0.96], [336, 15, 7, 1.81], [24722, 2, 7, 3.39], [2859, 15, 7, 1.07], [10410, 1, 7, 1.07], [5733, 2, 7, 2.27], [380, 2, 7, 1.27], [11770, 1, 7, 1.48], [8058, 1, 7, 2.16], [19583, 1, 7, 1.98], [942, 3, 7, 2.24], [13034, 3, 7, 3.28], [13884, 1, 7, 5.0], [23439, 1, 7, 0.95], [11586, 1, 7, 2.54], [23443, 1, 7, 1.14], [23438, 1, 7, 2.82], [12238, 3, 7, 2.86], [12889, 1, 7, 1.97], [11868, 3, 7, 2.0]]</t>
+  </si>
+  <si>
+    <t>[[1429, 2, 7, 1.84], [5946, 1, 7, 1.04], [13028, 3, 7, 1.69], [417, 2, 7, 1.42], [9784, 1, 7, 1.23], [13023, 3, 8, 2.67], [10780, 10, 7, 3.83], [8943, 3, 7, 3.09], [22922, 3, 7, 2.54], [13171, 1, 7, 1.29], [5007, 1, 7, 1.33], [13289, 1, 7, 2.13], [23562, 1, 7, 5.0], [13167, 1, 7, 1.43], [13884, 1, 7, 0.72], [13178, 1, 7, 3.7], [23563, 1, 7, 4.09], [12862, 1, 7, 3.84], [11738, 2, 7, 1.07]]</t>
+  </si>
+  <si>
+    <t>[[8650, 2, 7, 3.84], [2424, 29, 7, 1.46], [11838, 2, 7, 1.29], [21793, 1, 11, 1.48], [2859, 15, 7, 1.07], [6098, 29, 7, 1.0], [3893, 1, 7, 2.16], [5811, 3, 8, 2.57], [23961, 1, 7, 2.41]]</t>
+  </si>
+  <si>
+    <t>[[2912, 1, 7, 1.48], [361, 2, 7, 1.13], [24722, 2, 7, 2.14], [2422, 29, 7, 1.54], [2859, 1, 7, 1.07], [4232, 29, 7, 0.9], [3670, 2, 9, 5.0], [964, 15, 7, 0.74], [7885, 4, 7, 1.33], [380, 2, 7, 2.46]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 1.72], [361, 2, 7, 1.13], [417, 2, 7, 1.02], [947, 1, 7, 1.26], [142, 2, 7, 1.88], [6098, 29, 7, 1.03], [11887, 1, 7, 1.34], [9784, 1, 7, 1.15], [1139, 3, 7, 1.52], [20680, 1, 7, 1.12], [973, 1, 7, 1.99]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 7, 1.62], [141, 2, 7, 1.72], [362, 2, 7, 0.92], [2422, 29, 7, 1.43], [6158, 2, 13, 2.58], [6630, 3, 7, 2.67], [192, 3, 19, 2.89], [590, 15, 7, 0.81], [5729, 2, 7, 2.48], [7005, 1, 7, 1.13], [307, 2, 7, 2.5], [2057, 3, 7, 1.42], [2055, 3, 7, 2.04], [964, 15, 7, 1.47], [5746, 2, 8, 2.76], [424, 1, 7, 1.62], [10406, 1, 7, 1.63], [12349, 1, 9, 2.74], [2335, 3, 7, 1.0], [10407, 1, 7, 1.86], [825, 1, 7, 1.45], [12379, 1, 7, 2.32], [12347, 1, 7, 2.26]]</t>
+  </si>
+  <si>
+    <t>[[362, 2, 7, 0.92], [23238, 29, 7, 1.49], [2328, 2, 7, 1.95], [1446, 2, 7, 2.1], [11683, 2, 24, 2.18], [9289, 29, 7, 2.14], [7887, 4, 7, 1.38], [3, 2, 7, 0.78], [336, 15, 7, 1.83], [3379, 3, 7, 2.07], [2728, 3, 7, 3.28], [13283, 1, 7, 1.41], [21701, 3, 7, 1.67], [13281, 1, 7, 1.06], [19582, 3, 7, 1.54]]</t>
+  </si>
+  <si>
+    <t>[[9760, 29, 7, 1.77], [410, 1, 7, 1.27], [11116, 1, 7, 1.4], [8674, 2, 7, 1.96], [2879, 1, 7, 2.58], [6540, 29, 11, 2.31], [9069, 1, 7, 1.0], [2105, 3, 12, 1.11], [11091, 1, 7, 1.44], [473, 1, 7, 1.07], [17, 1, 7, 1.3], [3477, 2, 7, 2.68], [4232, 29, 8, 2.42], [5811, 3, 7, 0.79], [2859, 15, 7, 1.07], [11092, 1, 7, 1.45], [9945, 3, 7, 1.56], [11090, 1, 7, 1.54], [11677, 1, 7, 2.98], [8686, 3, 7, 1.61], [3583, 3, 7, 1.5], [11586, 1, 11, 2.48], [10580, 3, 7, 2.19], [10521, 3, 7, 4.2], [13482, 1, 7, 2.94], [23335, 14, 9, 1.98], [12586, 3, 10, 3.04], [21012, 2, 8, 1.73], [13166, 1, 7, 2.29], [3585, 3, 7, 1.83], [13167, 1, 7, 3.93], [13182, 1, 7, 1.49], [8600, 1, 7, 1.55], [23422, 1, 7, 2.7], [12882, 1, 7, 2.92], [13172, 1, 7, 4.18], [23434, 1, 7, 1.07], [11855, 1, 7, 2.61], [9083, 3, 8, 2.89], [23437, 1, 7, 0.92]]</t>
   </si>
 </sst>
 </file>
